--- a/CreditApp/bin/Debug/7.xlsx
+++ b/CreditApp/bin/Debug/7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1237" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="187">
   <si>
     <t>ед. измерения</t>
   </si>
@@ -581,6 +581,12 @@
   <si>
     <t>Другое</t>
   </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>22.03.2016</t>
+  </si>
 </sst>
 </file>
 
@@ -920,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1773,11 +1779,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY39"/>
+  <dimension ref="A1:BY46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BY2" sqref="BY2"/>
+    <sheetView topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BZ1" sqref="BZ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1786,6 +1792,7 @@
     <col min="3" max="3" width="11.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="12" max="12" width="7.109375" customWidth="1"/>
     <col min="75" max="75" width="9.33203125" customWidth="1"/>
@@ -2700,7 +2707,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2714,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2728,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2742,7 +2749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2756,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2773,7 +2780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2861,302 +2868,424 @@
       <c r="BW38" s="3"/>
       <c r="BX38" s="3"/>
     </row>
-    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>175</v>
+      </c>
       <c r="C39">
-        <f t="shared" ref="C39:X39" si="0">SUM(C3:C38)</f>
-        <v>4194</v>
+        <v>12</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>265</v>
+        <v>111</v>
       </c>
       <c r="E39">
-        <f t="shared" si="0"/>
-        <v>15821</v>
+        <v>222</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
-        <v>5498</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>60013</v>
-      </c>
-      <c r="H39">
-        <f t="shared" si="0"/>
-        <v>2814</v>
-      </c>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>175</v>
+      </c>
+      <c r="C40">
+        <v>12</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>175</v>
+      </c>
+      <c r="C42">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43">
+        <v>1111</v>
+      </c>
+      <c r="D43">
+        <v>111</v>
+      </c>
+      <c r="E43">
+        <v>222</v>
+      </c>
+      <c r="F43">
+        <v>333</v>
+      </c>
+      <c r="J43">
         <v>444</v>
       </c>
-      <c r="K39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f t="shared" si="0"/>
+      <c r="M43">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>12312</v>
+      </c>
+      <c r="I44">
+        <v>123</v>
+      </c>
+      <c r="T44">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45">
+        <v>123</v>
+      </c>
+      <c r="G45">
+        <v>22</v>
+      </c>
+      <c r="I45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f>SUM(D3:D45)</f>
+        <v>487</v>
+      </c>
+      <c r="E46">
+        <f>SUM(E3:E45)</f>
+        <v>16265</v>
+      </c>
+      <c r="F46">
+        <f>SUM(F3:F45)</f>
+        <v>18476</v>
+      </c>
+      <c r="G46">
+        <f>SUM(G3:G45)</f>
+        <v>60035</v>
+      </c>
+      <c r="H46">
+        <f>SUM(H3:H45)</f>
+        <v>2819</v>
+      </c>
+      <c r="I46">
+        <f>SUM(I3:I45)</f>
+        <v>2167</v>
+      </c>
+      <c r="J46">
+        <f>SUM(J3:J45)</f>
+        <v>888</v>
+      </c>
+      <c r="K46">
+        <f>SUM(K3:K45)</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f>SUM(L3:L45)</f>
         <v>10476</v>
       </c>
-      <c r="M39">
-        <f t="shared" si="0"/>
-        <v>745</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
+      <c r="M46">
+        <f>SUM(M3:M45)</f>
+        <v>1300</v>
+      </c>
+      <c r="N46">
+        <f>SUM(N3:N45)</f>
         <v>7050</v>
       </c>
-      <c r="O39">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="0"/>
+      <c r="O46">
+        <f>SUM(O3:O45)</f>
+        <v>9</v>
+      </c>
+      <c r="P46">
+        <f>SUM(P3:P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f>SUM(Q3:Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <f>SUM(R3:R45)</f>
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <f>SUM(S3:S45)</f>
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f>SUM(T3:T45)</f>
+        <v>357</v>
+      </c>
+      <c r="U46">
+        <f>SUM(U3:U45)</f>
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <f>SUM(V3:V45)</f>
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <f>SUM(W3:W45)</f>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f>SUM(X3:X45)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <f>SUM(Y3:Y45)</f>
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f>SUM(Z3:Z45)</f>
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <f>SUM(AA3:AA45)</f>
         <v>234</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <f>SUM(3:38)</f>
-        <v>662591</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" ref="Z39:AW39" si="1">SUM(AA3:AA38)</f>
+      <c r="AB46">
+        <f>SUM(AB3:AB45)</f>
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <f>SUM(AC3:AC45)</f>
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <f>SUM(AD3:AD45)</f>
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <f>SUM(AE3:AE45)</f>
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <f>SUM(AF3:AF45)</f>
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <f>SUM(AG3:AG45)</f>
         <v>234</v>
       </c>
-      <c r="AA39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="1"/>
-        <v>234</v>
-      </c>
-      <c r="AG39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AN39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AW39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AX39">
-        <f>SUM(3:38)</f>
-        <v>662591</v>
-      </c>
-      <c r="AY39">
-        <f t="shared" ref="AY39:BV39" si="2">SUM(BA3:BA38)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BA39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BC39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BD39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BE39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BF39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BG39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BH39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BI39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BJ39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BK39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BL39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BM39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BN39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BO39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BP39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BQ39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BR39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BS39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BT39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BU39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BV39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BW39">
-        <f>SUM(3:38)</f>
-        <v>662591</v>
-      </c>
-      <c r="BX39">
-        <f>SUM(3:38)</f>
-        <v>662591</v>
+      <c r="AH46">
+        <f>SUM(AH3:AH45)</f>
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <f>SUM(AI3:AI45)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <f>SUM(AJ3:AJ45)</f>
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <f>SUM(AK3:AK45)</f>
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <f>SUM(AL3:AL45)</f>
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <f>SUM(AM3:AM45)</f>
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <f>SUM(AN3:AN45)</f>
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <f>SUM(AO3:AO45)</f>
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <f>SUM(AP3:AP45)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <f>SUM(AQ3:AQ45)</f>
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <f>SUM(AR3:AR45)</f>
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <f>SUM(AS3:AS45)</f>
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <f>SUM(AT3:AT45)</f>
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <f>SUM(AU3:AU45)</f>
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <f>SUM(AV3:AV45)</f>
+        <v>0</v>
+      </c>
+      <c r="AW46">
+        <f>SUM(AW3:AW45)</f>
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <f>SUM(AX3:AX45)</f>
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <f>SUM(AY3:AY45)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <f>SUM(AZ3:AZ45)</f>
+        <v>0</v>
+      </c>
+      <c r="BA46">
+        <f>SUM(BA3:BA45)</f>
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <f>SUM(BB3:BB45)</f>
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <f>SUM(BC3:BC45)</f>
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <f>SUM(BD3:BD45)</f>
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <f>SUM(BE3:BE45)</f>
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <f>SUM(BF3:BF45)</f>
+        <v>0</v>
+      </c>
+      <c r="BG46">
+        <f>SUM(BG3:BG45)</f>
+        <v>0</v>
+      </c>
+      <c r="BH46">
+        <f>SUM(BH3:BH45)</f>
+        <v>0</v>
+      </c>
+      <c r="BI46">
+        <f>SUM(BI3:BI45)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ46">
+        <f>SUM(BJ3:BJ45)</f>
+        <v>0</v>
+      </c>
+      <c r="BK46">
+        <f>SUM(BK3:BK45)</f>
+        <v>0</v>
+      </c>
+      <c r="BL46">
+        <f>SUM(BL3:BL45)</f>
+        <v>0</v>
+      </c>
+      <c r="BM46">
+        <f>SUM(BM3:BM45)</f>
+        <v>0</v>
+      </c>
+      <c r="BN46">
+        <f>SUM(BN3:BN45)</f>
+        <v>0</v>
+      </c>
+      <c r="BO46">
+        <f>SUM(BO3:BO45)</f>
+        <v>0</v>
+      </c>
+      <c r="BP46">
+        <f>SUM(BP3:BP45)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ46">
+        <f>SUM(BQ3:BQ45)</f>
+        <v>0</v>
+      </c>
+      <c r="BR46">
+        <f>SUM(BR3:BR45)</f>
+        <v>0</v>
+      </c>
+      <c r="BS46">
+        <f>SUM(BS3:BS45)</f>
+        <v>0</v>
+      </c>
+      <c r="BT46">
+        <f>SUM(BT3:BT45)</f>
+        <v>0</v>
+      </c>
+      <c r="BU46">
+        <f>SUM(BU3:BU45)</f>
+        <v>0</v>
+      </c>
+      <c r="BV46">
+        <f>SUM(BV3:BV45)</f>
+        <v>0</v>
+      </c>
+      <c r="BW46">
+        <f>SUM(BW3:BW45)</f>
+        <v>0</v>
+      </c>
+      <c r="BX46">
+        <f>SUM(BX3:BX45)</f>
+        <v>0</v>
+      </c>
+      <c r="BY46">
+        <f>SUM(BY3:BY45)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3167,10 +3296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY55"/>
+  <dimension ref="A1:BY66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
   </sheetViews>
@@ -4332,7 +4461,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4346,7 +4475,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4360,7 +4489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4377,7 +4506,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4400,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4420,7 +4549,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4437,301 +4566,548 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55">
+        <v>555</v>
+      </c>
       <c r="D55">
-        <f>SUM(D3:D54)</f>
-        <v>1166</v>
+        <v>111</v>
       </c>
       <c r="E55">
-        <f>SUM(E3:E54)</f>
-        <v>26398</v>
-      </c>
-      <c r="F55">
-        <f>SUM(F3:F54)</f>
-        <v>8766</v>
-      </c>
-      <c r="G55">
-        <f>SUM(G3:G54)</f>
-        <v>60437</v>
+        <v>222</v>
       </c>
       <c r="H55">
-        <f>SUM(H3:H54)</f>
-        <v>2274</v>
-      </c>
-      <c r="I55">
-        <f>SUM(I3:I54)</f>
-        <v>7565</v>
-      </c>
-      <c r="J55">
-        <f>SUM(J3:J54)</f>
-        <v>948</v>
-      </c>
-      <c r="K55">
-        <f>SUM(K3:K54)</f>
-        <v>156</v>
-      </c>
-      <c r="L55">
-        <f>SUM(L3:L54)</f>
-        <v>10621</v>
-      </c>
-      <c r="M55">
-        <f>SUM(M3:M54)</f>
-        <v>979</v>
-      </c>
-      <c r="N55">
-        <f>SUM(N3:N54)</f>
-        <v>7116</v>
+        <v>333</v>
       </c>
       <c r="O55">
-        <f>SUM(O3:O54)</f>
-        <v>461</v>
-      </c>
-      <c r="P55">
-        <f>SUM(P3:P54)</f>
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <f>SUM(Q3:Q54)</f>
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <f>SUM(R3:R54)</f>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f>SUM(S3:S54)</f>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f>SUM(T3:T54)</f>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56">
+        <v>444</v>
+      </c>
+      <c r="D56">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>222</v>
+      </c>
+      <c r="I56">
+        <v>333</v>
+      </c>
+      <c r="N56">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+      <c r="J57">
         <v>234</v>
       </c>
-      <c r="U55">
-        <f>SUM(U3:U54)</f>
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <f>SUM(V3:V54)</f>
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <f>SUM(W3:W54)</f>
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <f>SUM(X3:X54)</f>
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <f>SUM(Y3:Y54)</f>
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <f>SUM(Z3:Z54)</f>
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <f>SUM(AA3:AA54)</f>
+    </row>
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58">
+        <v>123</v>
+      </c>
+      <c r="E58">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59">
+        <v>123</v>
+      </c>
+      <c r="F59">
+        <v>123</v>
+      </c>
+      <c r="I59">
+        <v>12</v>
+      </c>
+      <c r="T59">
+        <v>123</v>
+      </c>
+      <c r="Y59">
+        <v>123</v>
+      </c>
+      <c r="AT59">
+        <v>123</v>
+      </c>
+      <c r="BK59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60">
         <v>234</v>
       </c>
-      <c r="AB55">
-        <f>SUM(AB3:AB54)</f>
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <f>SUM(AC3:AC54)</f>
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <f>SUM(AD3:AD54)</f>
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <f>SUM(AE3:AE54)</f>
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <f>SUM(AF3:AF54)</f>
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <f>SUM(AG3:AG54)</f>
+      <c r="D60">
         <v>234</v>
       </c>
-      <c r="AH55">
-        <f>SUM(AH3:AH54)</f>
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <f>SUM(AI3:AI54)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <f>SUM(AJ3:AJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <f>SUM(AK3:AK54)</f>
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <f>SUM(AL3:AL54)</f>
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <f>SUM(AM3:AM54)</f>
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <f>SUM(AN3:AN54)</f>
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <f>SUM(AO3:AO54)</f>
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <f>SUM(AP3:AP54)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <f>SUM(AQ3:AQ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <f>SUM(AR3:AR54)</f>
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <f>SUM(AS3:AS54)</f>
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <f>SUM(AT3:AT54)</f>
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <f>SUM(AU3:AU54)</f>
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <f>SUM(AV3:AV54)</f>
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <f>SUM(AW3:AW54)</f>
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <f>SUM(AX3:AX54)</f>
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <f>SUM(AY3:AY54)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <f>SUM(AZ3:AZ54)</f>
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <f>SUM(BA3:BA54)</f>
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <f>SUM(BB3:BB54)</f>
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <f>SUM(BC3:BC54)</f>
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <f>SUM(BD3:BD54)</f>
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <f>SUM(BE3:BE54)</f>
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <f>SUM(BF3:BF54)</f>
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <f>SUM(BG3:BG54)</f>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>3454</v>
+      </c>
+      <c r="G60">
+        <v>234</v>
+      </c>
+      <c r="J60">
+        <v>123</v>
+      </c>
+      <c r="M60">
+        <v>456</v>
+      </c>
+      <c r="N60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61">
         <v>1</v>
       </c>
-      <c r="BH55">
-        <f>SUM(BH3:BH54)</f>
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <f>SUM(BI3:BI54)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <f>SUM(BJ3:BJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="BK55">
-        <f>SUM(BK3:BK54)</f>
-        <v>0</v>
-      </c>
-      <c r="BL55">
-        <f>SUM(BL3:BL54)</f>
-        <v>0</v>
-      </c>
-      <c r="BM55">
-        <f>SUM(BM3:BM54)</f>
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <f>SUM(BN3:BN54)</f>
-        <v>0</v>
-      </c>
-      <c r="BO55">
-        <f>SUM(BO3:BO54)</f>
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <f>SUM(BP3:BP54)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ55">
-        <f>SUM(BQ3:BQ54)</f>
-        <v>0</v>
-      </c>
-      <c r="BR55">
-        <f>SUM(BR3:BR54)</f>
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <f>SUM(BS3:BS54)</f>
-        <v>0</v>
-      </c>
-      <c r="BT55">
-        <f>SUM(BT3:BT54)</f>
-        <v>0</v>
-      </c>
-      <c r="BU55">
-        <f>SUM(BU3:BU54)</f>
-        <v>0</v>
-      </c>
-      <c r="BV55">
-        <f>SUM(BV3:BV54)</f>
-        <v>0</v>
-      </c>
-      <c r="BW55">
-        <f>SUM(BW3:BW54)</f>
-        <v>0</v>
-      </c>
-      <c r="BX55">
-        <f>SUM(BX3:BX54)</f>
-        <v>0</v>
-      </c>
-      <c r="BY55">
-        <f>SUM(BY3:BY54)</f>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="I61">
+        <v>4</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="P61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>123</v>
+      </c>
+      <c r="E63">
+        <v>34</v>
+      </c>
+      <c r="H63">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64">
+        <v>200</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65">
+        <v>545</v>
+      </c>
+      <c r="E65">
+        <v>45</v>
+      </c>
+      <c r="G65">
+        <v>454545</v>
+      </c>
+      <c r="H65">
+        <v>45</v>
+      </c>
+      <c r="L65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <f t="shared" ref="D66:AI66" si="0">SUM(D3:D65)</f>
+        <v>2001</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>27064</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>12467</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>515218</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>3089</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>7914</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>1309</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>10676</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>1435</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>7566</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>683</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="0"/>
+        <v>357</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" ref="AJ66:BO66" si="1">SUM(AJ3:AJ65)</f>
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BH66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="BL66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <f t="shared" ref="BP66:CU66" si="2">SUM(BP3:BP65)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BS66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BT66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BW66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BX66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BY66">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4743,10 +5119,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY55"/>
+  <dimension ref="A1:BY66"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5705,7 +6081,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5716,7 +6092,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5727,7 +6103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5738,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5749,7 +6125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5760,7 +6136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5771,301 +6147,536 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="55" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="D55">
-        <f>SUM(D3:D54)</f>
-        <v>1078</v>
-      </c>
-      <c r="E55">
-        <f>SUM(E3:E54)</f>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f>SUM(F3:F54)</f>
-        <v>4389</v>
-      </c>
-      <c r="G55">
-        <f>SUM(G3:G54)</f>
-        <v>14</v>
-      </c>
-      <c r="H55">
-        <f>SUM(H3:H54)</f>
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <f>SUM(I3:I54)</f>
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <f>SUM(J3:J54)</f>
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <f>SUM(K3:K54)</f>
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <f>SUM(L3:L54)</f>
-        <v>477</v>
-      </c>
-      <c r="M55">
-        <f>SUM(M3:M54)</f>
-        <v>0</v>
-      </c>
-      <c r="N55">
-        <f>SUM(N3:N54)</f>
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <f>SUM(O3:O54)</f>
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <f>SUM(P3:P54)</f>
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <f>SUM(Q3:Q54)</f>
-        <v>0</v>
-      </c>
-      <c r="R55">
-        <f>SUM(R3:R54)</f>
-        <v>0</v>
-      </c>
-      <c r="S55">
-        <f>SUM(S3:S54)</f>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f>SUM(T3:T54)</f>
-        <v>0</v>
-      </c>
-      <c r="U55">
-        <f>SUM(U3:U54)</f>
-        <v>0</v>
-      </c>
-      <c r="V55">
-        <f>SUM(V3:V54)</f>
-        <v>0</v>
-      </c>
-      <c r="W55">
-        <f>SUM(W3:W54)</f>
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <f>SUM(X3:X54)</f>
-        <v>0</v>
-      </c>
-      <c r="Y55">
-        <f>SUM(Y3:Y54)</f>
-        <v>0</v>
-      </c>
-      <c r="Z55">
-        <f>SUM(Z3:Z54)</f>
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <f>SUM(AA3:AA54)</f>
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <f>SUM(AB3:AB54)</f>
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <f>SUM(AC3:AC54)</f>
-        <v>0</v>
-      </c>
-      <c r="AD55">
-        <f>SUM(AD3:AD54)</f>
-        <v>0</v>
-      </c>
-      <c r="AE55">
-        <f>SUM(AE3:AE54)</f>
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <f>SUM(AF3:AF54)</f>
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <f>SUM(AG3:AG54)</f>
-        <v>0</v>
-      </c>
-      <c r="AH55">
-        <f>SUM(AH3:AH54)</f>
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <f>SUM(AI3:AI54)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ55">
-        <f>SUM(AJ3:AJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AK55">
-        <f>SUM(AK3:AK54)</f>
-        <v>0</v>
-      </c>
-      <c r="AL55">
-        <f>SUM(AL3:AL54)</f>
-        <v>0</v>
-      </c>
-      <c r="AM55">
-        <f>SUM(AM3:AM54)</f>
-        <v>0</v>
-      </c>
-      <c r="AN55">
-        <f>SUM(AN3:AN54)</f>
-        <v>0</v>
-      </c>
-      <c r="AO55">
-        <f>SUM(AO3:AO54)</f>
-        <v>0</v>
-      </c>
-      <c r="AP55">
-        <f>SUM(AP3:AP54)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ55">
-        <f>SUM(AQ3:AQ54)</f>
-        <v>0</v>
-      </c>
-      <c r="AR55">
-        <f>SUM(AR3:AR54)</f>
-        <v>0</v>
-      </c>
-      <c r="AS55">
-        <f>SUM(AS3:AS54)</f>
-        <v>0</v>
-      </c>
-      <c r="AT55">
-        <f>SUM(AT3:AT54)</f>
-        <v>0</v>
-      </c>
-      <c r="AU55">
-        <f>SUM(AU3:AU54)</f>
-        <v>0</v>
-      </c>
-      <c r="AV55">
-        <f>SUM(AV3:AV54)</f>
-        <v>0</v>
-      </c>
-      <c r="AW55">
-        <f>SUM(AW3:AW54)</f>
-        <v>0</v>
-      </c>
-      <c r="AX55">
-        <f>SUM(AX3:AX54)</f>
-        <v>0</v>
-      </c>
-      <c r="AY55">
-        <f>SUM(AY3:AY54)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ55">
-        <f>SUM(AZ3:AZ54)</f>
-        <v>0</v>
-      </c>
-      <c r="BA55">
-        <f>SUM(BA3:BA54)</f>
-        <v>0</v>
-      </c>
-      <c r="BB55">
-        <f>SUM(BB3:BB54)</f>
-        <v>0</v>
-      </c>
-      <c r="BC55">
-        <f>SUM(BC3:BC54)</f>
-        <v>0</v>
-      </c>
-      <c r="BD55">
-        <f>SUM(BD3:BD54)</f>
-        <v>0</v>
-      </c>
-      <c r="BE55">
-        <f>SUM(BE3:BE54)</f>
-        <v>0</v>
-      </c>
-      <c r="BF55">
-        <f>SUM(BF3:BF54)</f>
-        <v>0</v>
-      </c>
-      <c r="BG55">
-        <f>SUM(BG3:BG54)</f>
-        <v>0</v>
-      </c>
-      <c r="BH55">
-        <f>SUM(BH3:BH54)</f>
-        <v>0</v>
-      </c>
-      <c r="BI55">
-        <f>SUM(BI3:BI54)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ55">
-        <f>SUM(BJ3:BJ54)</f>
-        <v>0</v>
-      </c>
-      <c r="BK55">
-        <f>SUM(BK3:BK54)</f>
-        <v>0</v>
-      </c>
-      <c r="BL55">
-        <f>SUM(BL3:BL54)</f>
-        <v>0</v>
-      </c>
-      <c r="BM55">
-        <f>SUM(BM3:BM54)</f>
-        <v>0</v>
-      </c>
-      <c r="BN55">
-        <f>SUM(BN3:BN54)</f>
-        <v>0</v>
-      </c>
-      <c r="BO55">
-        <f>SUM(BO3:BO54)</f>
-        <v>0</v>
-      </c>
-      <c r="BP55">
-        <f>SUM(BP3:BP54)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ55">
-        <f>SUM(BQ3:BQ54)</f>
-        <v>0</v>
-      </c>
-      <c r="BR55">
-        <f>SUM(BR3:BR54)</f>
-        <v>0</v>
-      </c>
-      <c r="BS55">
-        <f>SUM(BS3:BS54)</f>
-        <v>0</v>
-      </c>
-      <c r="BT55">
-        <f>SUM(BT3:BT54)</f>
-        <v>0</v>
-      </c>
-      <c r="BU55">
-        <f>SUM(BU3:BU54)</f>
-        <v>0</v>
-      </c>
-      <c r="BV55">
-        <f>SUM(BV3:BV54)</f>
-        <v>0</v>
-      </c>
-      <c r="BW55">
-        <f>SUM(BW3:BW54)</f>
-        <v>0</v>
-      </c>
-      <c r="BX55">
-        <f>SUM(BX3:BX54)</f>
-        <v>0</v>
-      </c>
-      <c r="BY55">
-        <f>SUM(BY3:BY54)</f>
+    <row r="55" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56">
+        <v>444</v>
+      </c>
+      <c r="D56">
+        <v>111</v>
+      </c>
+      <c r="E56">
+        <v>222</v>
+      </c>
+      <c r="I56">
+        <v>333</v>
+      </c>
+      <c r="N56">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57">
+        <v>123</v>
+      </c>
+      <c r="D57">
+        <v>321</v>
+      </c>
+      <c r="J57">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58">
+        <v>123</v>
+      </c>
+      <c r="E58">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59">
+        <v>123</v>
+      </c>
+      <c r="F59">
+        <v>123</v>
+      </c>
+      <c r="I59">
+        <v>123</v>
+      </c>
+      <c r="T59">
+        <v>123</v>
+      </c>
+      <c r="Y59">
+        <v>123</v>
+      </c>
+      <c r="AT59">
+        <v>12323</v>
+      </c>
+      <c r="BK59">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60">
+        <v>234</v>
+      </c>
+      <c r="D60">
+        <v>234</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <v>3543</v>
+      </c>
+      <c r="G60">
+        <v>234</v>
+      </c>
+      <c r="J60">
+        <v>6456</v>
+      </c>
+      <c r="M60">
+        <v>456</v>
+      </c>
+      <c r="N60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+      <c r="K61">
+        <v>6</v>
+      </c>
+      <c r="P61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>123</v>
+      </c>
+      <c r="F62">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>123</v>
+      </c>
+      <c r="E63">
+        <v>234</v>
+      </c>
+      <c r="H63">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64">
+        <v>200</v>
+      </c>
+      <c r="D64">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65">
+        <v>545</v>
+      </c>
+      <c r="E65">
+        <v>757</v>
+      </c>
+      <c r="G65">
+        <v>45</v>
+      </c>
+      <c r="H65">
+        <v>45</v>
+      </c>
+      <c r="L65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <f t="shared" ref="D66:AI66" si="0">SUM(D3:D65)</f>
+        <v>2010</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>1371</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>8379</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>389</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>6892</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>489</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>456</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="Z66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" ref="AJ66:BO66" si="1">SUM(AJ3:AJ65)</f>
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <f t="shared" si="1"/>
+        <v>12323</v>
+      </c>
+      <c r="AU66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK66">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="BL66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP66">
+        <f t="shared" ref="BP66:CU66" si="2">SUM(BP3:BP65)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BR66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BS66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BT66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BU66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BV66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BW66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BX66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BY66">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6076,10 +6687,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX53"/>
+  <dimension ref="A1:BY66"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6092,9 +6703,10 @@
     <col min="7" max="7" width="9.21875" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
     <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.21875" customWidth="1"/>
     <col min="11" max="11" width="7.21875" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="2" customFormat="1" ht="91.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -19346,7 +19958,7 @@
       <c r="BW48" s="4"/>
       <c r="BX48" s="4"/>
     </row>
-    <row r="49" spans="4:76" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:76" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -19421,7 +20033,7 @@
       <c r="BW49" s="4"/>
       <c r="BX49" s="4"/>
     </row>
-    <row r="50" spans="4:76" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:76" x14ac:dyDescent="0.3">
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -19496,7 +20108,7 @@
       <c r="BW50" s="4"/>
       <c r="BX50" s="4"/>
     </row>
-    <row r="51" spans="4:76" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:76" x14ac:dyDescent="0.3">
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -19571,7 +20183,7 @@
       <c r="BW51" s="4"/>
       <c r="BX51" s="4"/>
     </row>
-    <row r="52" spans="4:76" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:76" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -19646,7 +20258,7 @@
       <c r="BW52" s="4"/>
       <c r="BX52" s="4"/>
     </row>
-    <row r="53" spans="4:76" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:76" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -19721,6 +20333,788 @@
       <c r="BW53" s="4"/>
       <c r="BX53" s="4"/>
     </row>
+    <row r="60" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60">
+        <v>234</v>
+      </c>
+      <c r="D60">
+        <v>54756</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60">
+        <v>12237522</v>
+      </c>
+      <c r="G60">
+        <v>54756</v>
+      </c>
+      <c r="J60">
+        <v>794088</v>
+      </c>
+      <c r="M60">
+        <v>207936</v>
+      </c>
+      <c r="N60">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="61" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" t="s">
+        <v>185</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4">
+        <v>2</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
+      <c r="H61" s="4">
+        <v>3</v>
+      </c>
+      <c r="I61" s="4">
+        <v>8</v>
+      </c>
+      <c r="J61" s="4">
+        <v>16</v>
+      </c>
+      <c r="K61" s="4">
+        <v>36</v>
+      </c>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4">
+        <v>20</v>
+      </c>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="4"/>
+      <c r="AH61" s="4"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4"/>
+      <c r="AR61" s="4"/>
+      <c r="AS61" s="4"/>
+      <c r="AT61" s="4"/>
+      <c r="AU61" s="4"/>
+      <c r="AV61" s="4"/>
+      <c r="AW61" s="4"/>
+      <c r="AX61" s="4"/>
+      <c r="AY61" s="4"/>
+      <c r="AZ61" s="4"/>
+      <c r="BA61" s="4"/>
+      <c r="BB61" s="4"/>
+      <c r="BC61" s="4"/>
+      <c r="BD61" s="4"/>
+      <c r="BE61" s="4"/>
+      <c r="BF61" s="4"/>
+      <c r="BG61" s="4"/>
+      <c r="BH61" s="4"/>
+      <c r="BI61" s="4"/>
+      <c r="BJ61" s="4"/>
+      <c r="BK61" s="4"/>
+      <c r="BL61" s="4"/>
+      <c r="BM61" s="4"/>
+      <c r="BN61" s="4"/>
+      <c r="BO61" s="4"/>
+      <c r="BP61" s="4"/>
+      <c r="BQ61" s="4"/>
+      <c r="BR61" s="4"/>
+      <c r="BS61" s="4"/>
+      <c r="BT61" s="4"/>
+      <c r="BU61" s="4"/>
+      <c r="BV61" s="4"/>
+      <c r="BW61" s="4"/>
+      <c r="BX61" s="4"/>
+    </row>
+    <row r="62" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C62">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4">
+        <f>'Приход материалов'!BY62*'Цена прихода'!BY62</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4">
+        <f>'Приход материалов'!BY62*'Цена прихода'!BY62</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="4"/>
+      <c r="AH62" s="4"/>
+      <c r="AI62" s="4"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
+      <c r="AN62" s="4"/>
+      <c r="AO62" s="4"/>
+      <c r="AP62" s="4"/>
+      <c r="AQ62" s="4"/>
+      <c r="AR62" s="4"/>
+      <c r="AS62" s="4"/>
+      <c r="AT62" s="4"/>
+      <c r="AU62" s="4"/>
+      <c r="AV62" s="4"/>
+      <c r="AW62" s="4"/>
+      <c r="AX62" s="4"/>
+      <c r="AY62" s="4"/>
+      <c r="AZ62" s="4"/>
+      <c r="BA62" s="4"/>
+      <c r="BB62" s="4"/>
+      <c r="BC62" s="4"/>
+      <c r="BD62" s="4"/>
+      <c r="BE62" s="4"/>
+      <c r="BF62" s="4"/>
+      <c r="BG62" s="4"/>
+      <c r="BH62" s="4"/>
+      <c r="BI62" s="4"/>
+      <c r="BJ62" s="4"/>
+      <c r="BK62" s="4"/>
+      <c r="BL62" s="4"/>
+      <c r="BM62" s="4"/>
+      <c r="BN62" s="4"/>
+      <c r="BO62" s="4"/>
+      <c r="BP62" s="4"/>
+      <c r="BQ62" s="4"/>
+      <c r="BR62" s="4"/>
+      <c r="BS62" s="4"/>
+      <c r="BT62" s="4"/>
+      <c r="BU62" s="4"/>
+      <c r="BV62" s="4"/>
+      <c r="BW62" s="4"/>
+      <c r="BX62" s="4"/>
+    </row>
+    <row r="63" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63">
+        <v>123</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="4"/>
+      <c r="AH63" s="4"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
+      <c r="AP63" s="4"/>
+      <c r="AQ63" s="4"/>
+      <c r="AR63" s="4"/>
+      <c r="AS63" s="4"/>
+      <c r="AT63" s="4"/>
+      <c r="AU63" s="4"/>
+      <c r="AV63" s="4"/>
+      <c r="AW63" s="4"/>
+      <c r="AX63" s="4"/>
+      <c r="AY63" s="4"/>
+      <c r="AZ63" s="4"/>
+      <c r="BA63" s="4"/>
+      <c r="BB63" s="4"/>
+      <c r="BC63" s="4"/>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="4"/>
+      <c r="BH63" s="4"/>
+      <c r="BI63" s="4"/>
+      <c r="BJ63" s="4"/>
+      <c r="BK63" s="4"/>
+      <c r="BL63" s="4"/>
+      <c r="BM63" s="4"/>
+      <c r="BN63" s="4"/>
+      <c r="BO63" s="4"/>
+      <c r="BP63" s="4"/>
+      <c r="BQ63" s="4"/>
+      <c r="BR63" s="4"/>
+      <c r="BS63" s="4"/>
+      <c r="BT63" s="4"/>
+      <c r="BU63" s="4"/>
+      <c r="BV63" s="4"/>
+      <c r="BW63" s="4"/>
+      <c r="BX63" s="4"/>
+    </row>
+    <row r="64" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64">
+        <v>200</v>
+      </c>
+      <c r="D64" s="4">
+        <v>200</v>
+      </c>
+      <c r="E64" s="4">
+        <v>450</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="4"/>
+      <c r="AH64" s="4"/>
+      <c r="AI64" s="4"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
+      <c r="AN64" s="4"/>
+      <c r="AO64" s="4"/>
+      <c r="AP64" s="4"/>
+      <c r="AQ64" s="4"/>
+      <c r="AR64" s="4"/>
+      <c r="AS64" s="4"/>
+      <c r="AT64" s="4"/>
+      <c r="AU64" s="4"/>
+      <c r="AV64" s="4"/>
+      <c r="AW64" s="4"/>
+      <c r="AX64" s="4"/>
+      <c r="AY64" s="4"/>
+      <c r="AZ64" s="4"/>
+      <c r="BA64" s="4"/>
+      <c r="BB64" s="4"/>
+      <c r="BC64" s="4"/>
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+      <c r="BF64" s="4"/>
+      <c r="BG64" s="4"/>
+      <c r="BH64" s="4"/>
+      <c r="BI64" s="4"/>
+      <c r="BJ64" s="4"/>
+      <c r="BK64" s="4"/>
+      <c r="BL64" s="4"/>
+      <c r="BM64" s="4"/>
+      <c r="BN64" s="4"/>
+      <c r="BO64" s="4"/>
+      <c r="BP64" s="4"/>
+      <c r="BQ64" s="4"/>
+      <c r="BR64" s="4"/>
+      <c r="BS64" s="4"/>
+      <c r="BT64" s="4"/>
+      <c r="BU64" s="4"/>
+      <c r="BV64" s="4"/>
+      <c r="BW64" s="4"/>
+      <c r="BX64" s="4"/>
+    </row>
+    <row r="65" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65">
+        <v>545</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4">
+        <v>34065</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4">
+        <v>20454525</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2025</v>
+      </c>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4">
+        <v>660</v>
+      </c>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="4"/>
+      <c r="AH65" s="4"/>
+      <c r="AI65" s="4"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
+      <c r="AN65" s="4"/>
+      <c r="AO65" s="4"/>
+      <c r="AP65" s="4"/>
+      <c r="AQ65" s="4"/>
+      <c r="AR65" s="4"/>
+      <c r="AS65" s="4"/>
+      <c r="AT65" s="4"/>
+      <c r="AU65" s="4"/>
+      <c r="AV65" s="4"/>
+      <c r="AW65" s="4"/>
+      <c r="AX65" s="4"/>
+      <c r="AY65" s="4"/>
+      <c r="AZ65" s="4"/>
+      <c r="BA65" s="4"/>
+      <c r="BB65" s="4"/>
+      <c r="BC65" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+      <c r="BG65" s="4"/>
+      <c r="BH65" s="4"/>
+      <c r="BI65" s="4"/>
+      <c r="BJ65" s="4"/>
+      <c r="BK65" s="4"/>
+      <c r="BL65" s="4"/>
+      <c r="BM65" s="4"/>
+      <c r="BN65" s="4"/>
+      <c r="BO65" s="4"/>
+      <c r="BP65" s="4"/>
+      <c r="BQ65" s="4"/>
+      <c r="BR65" s="4"/>
+      <c r="BS65" s="4"/>
+      <c r="BT65" s="4"/>
+      <c r="BU65" s="4"/>
+      <c r="BV65" s="4"/>
+      <c r="BW65" s="4"/>
+      <c r="BX65" s="4"/>
+    </row>
+    <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D66" s="4">
+        <f t="shared" ref="D66:AI66" si="2">SUM(D3:D65)</f>
+        <v>2054963</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="2"/>
+        <v>34540</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="2"/>
+        <v>14634784</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="2"/>
+        <v>20513343</v>
+      </c>
+      <c r="H66" s="4">
+        <f t="shared" si="2"/>
+        <v>2028</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="J66" s="4">
+        <f t="shared" si="2"/>
+        <v>794104</v>
+      </c>
+      <c r="K66" s="4">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="L66" s="4">
+        <f t="shared" si="2"/>
+        <v>138990</v>
+      </c>
+      <c r="M66" s="4">
+        <f t="shared" si="2"/>
+        <v>207936</v>
+      </c>
+      <c r="N66" s="4">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="4">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI66" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="4">
+        <f t="shared" ref="AJ66:BO66" si="3">SUM(AJ3:AJ65)</f>
+        <v>0</v>
+      </c>
+      <c r="AK66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AL66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AM66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AN66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AP66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AR66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AS66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AT66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AU66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AV66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AW66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AX66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AY66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BA66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BB66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BC66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BD66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BE66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BF66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BH66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BN66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BO66" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BP66" s="4">
+        <f t="shared" ref="BP66:CU66" si="4">SUM(BP3:BP65)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BV66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX66" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY66">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -19729,10 +21123,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20194,6 +21588,9 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="F22">
         <f>SUM(F2:F21)</f>
         <v>34987</v>
@@ -20205,6 +21602,139 @@
       <c r="H22">
         <f>SUM(G22-F22)</f>
         <v>100065</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24">
+        <v>444</v>
+      </c>
+      <c r="H24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28">
+        <v>454</v>
+      </c>
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+      <c r="G28">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f>SUM(F2:F28)</f>
+        <v>71703</v>
+      </c>
+      <c r="G29">
+        <f>SUM(G2:G28)</f>
+        <v>271658</v>
       </c>
     </row>
   </sheetData>
@@ -20216,8 +21746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BZ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20677,299 +22207,299 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>'Приход материалов'!D55-'Расход материалов'!D39</f>
-        <v>901</v>
+        <f>'Приход материалов'!D46-'Расход материалов'!D45</f>
+        <v>0</v>
       </c>
       <c r="E5">
-        <f>'Приход материалов'!E55-'Расход материалов'!E39</f>
-        <v>10577</v>
+        <f>'Приход материалов'!E46-'Расход материалов'!E45</f>
+        <v>0</v>
       </c>
       <c r="F5">
-        <f>'Приход материалов'!F55-'Расход материалов'!F39</f>
-        <v>3268</v>
+        <f>'Приход материалов'!F46-'Расход материалов'!F45</f>
+        <v>4</v>
       </c>
       <c r="G5">
-        <f>'Приход материалов'!G55-'Расход материалов'!G39</f>
-        <v>424</v>
+        <f>'Приход материалов'!G46-'Расход материалов'!G45</f>
+        <v>-22</v>
       </c>
       <c r="H5">
-        <f>'Приход материалов'!H55-'Расход материалов'!H39</f>
-        <v>-540</v>
+        <f>'Приход материалов'!H46-'Расход материалов'!H45</f>
+        <v>0</v>
       </c>
       <c r="I5">
-        <f>'Приход материалов'!I55-'Расход материалов'!I39</f>
-        <v>5544</v>
+        <f>'Приход материалов'!I46-'Расход материалов'!I45</f>
+        <v>-23</v>
       </c>
       <c r="J5">
-        <f>'Приход материалов'!J55-'Расход материалов'!J39</f>
-        <v>504</v>
+        <f>'Приход материалов'!J46-'Расход материалов'!J45</f>
+        <v>2</v>
       </c>
       <c r="K5">
-        <f>'Приход материалов'!K55-'Расход материалов'!K39</f>
-        <v>156</v>
+        <f>'Приход материалов'!K46-'Расход материалов'!K45</f>
+        <v>0</v>
       </c>
       <c r="L5">
-        <f>'Приход материалов'!L55-'Расход материалов'!L39</f>
-        <v>145</v>
+        <f>'Приход материалов'!L46-'Расход материалов'!L45</f>
+        <v>0</v>
       </c>
       <c r="M5">
-        <f>'Приход материалов'!M55-'Расход материалов'!M39</f>
-        <v>234</v>
+        <f>'Приход материалов'!M46-'Расход материалов'!M45</f>
+        <v>0</v>
       </c>
       <c r="N5">
-        <f>'Приход материалов'!N55-'Расход материалов'!N39</f>
-        <v>66</v>
+        <f>'Приход материалов'!N46-'Расход материалов'!N45</f>
+        <v>5</v>
       </c>
       <c r="O5">
-        <f>'Приход материалов'!O55-'Расход материалов'!O39</f>
-        <v>456</v>
+        <f>'Приход материалов'!O46-'Расход материалов'!O45</f>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f>'Приход материалов'!P55-'Расход материалов'!P39</f>
+        <f>'Приход материалов'!P46-'Расход материалов'!P45</f>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f>'Приход материалов'!Q55-'Расход материалов'!Q39</f>
+        <f>'Приход материалов'!Q46-'Расход материалов'!Q45</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>'Приход материалов'!R55-'Расход материалов'!R39</f>
+        <f>'Приход материалов'!R46-'Расход материалов'!R45</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>'Приход материалов'!S55-'Расход материалов'!S39</f>
+        <f>'Приход материалов'!S46-'Расход материалов'!S45</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>'Приход материалов'!T55-'Расход материалов'!T39</f>
+        <f>'Приход материалов'!T46-'Расход материалов'!T45</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>'Приход материалов'!U55-'Расход материалов'!U39</f>
+        <f>'Приход материалов'!U46-'Расход материалов'!U45</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>'Приход материалов'!V55-'Расход материалов'!V39</f>
+        <f>'Приход материалов'!V46-'Расход материалов'!V45</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>'Приход материалов'!W55-'Расход материалов'!W39</f>
+        <f>'Приход материалов'!W46-'Расход материалов'!W45</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>'Приход материалов'!X55-'Расход материалов'!X39</f>
+        <f>'Приход материалов'!X46-'Расход материалов'!X45</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>'Приход материалов'!Y55-'Расход материалов'!Y39</f>
-        <v>-662591</v>
+        <f>'Приход материалов'!Y46-'Расход материалов'!Y45</f>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <f>'Приход материалов'!Z55-'Расход материалов'!Z39</f>
-        <v>-234</v>
+        <f>'Приход материалов'!Z46-'Расход материалов'!Z45</f>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <f>'Приход материалов'!AA55-'Расход материалов'!AA39</f>
-        <v>234</v>
+        <f>'Приход материалов'!AA46-'Расход материалов'!AA45</f>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <f>'Приход материалов'!AB55-'Расход материалов'!AB39</f>
+        <f>'Приход материалов'!AB46-'Расход материалов'!AB45</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>'Приход материалов'!AC55-'Расход материалов'!AC39</f>
+        <f>'Приход материалов'!AC46-'Расход материалов'!AC45</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>'Приход материалов'!AD55-'Расход материалов'!AD39</f>
+        <f>'Приход материалов'!AD46-'Расход материалов'!AD45</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>'Приход материалов'!AE55-'Расход материалов'!AE39</f>
+        <f>'Приход материалов'!AE46-'Расход материалов'!AE45</f>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f>'Приход материалов'!AF55-'Расход материалов'!AF39</f>
-        <v>-234</v>
+        <f>'Приход материалов'!AF46-'Расход материалов'!AF45</f>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <f>'Приход материалов'!AG55-'Расход материалов'!AG39</f>
-        <v>234</v>
+        <f>'Приход материалов'!AG46-'Расход материалов'!AG45</f>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <f>'Приход материалов'!AH55-'Расход материалов'!AH39</f>
+        <f>'Приход материалов'!AH46-'Расход материалов'!AH45</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>'Приход материалов'!AI55-'Расход материалов'!AI39</f>
+        <f>'Приход материалов'!AI46-'Расход материалов'!AI45</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>'Приход материалов'!AJ55-'Расход материалов'!AJ39</f>
+        <f>'Приход материалов'!AJ46-'Расход материалов'!AJ45</f>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f>'Приход материалов'!AK55-'Расход материалов'!AK39</f>
+        <f>'Приход материалов'!AK46-'Расход материалов'!AK45</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>'Приход материалов'!AL55-'Расход материалов'!AL39</f>
+        <f>'Приход материалов'!AL46-'Расход материалов'!AL45</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>'Приход материалов'!AM55-'Расход материалов'!AM39</f>
+        <f>'Приход материалов'!AM46-'Расход материалов'!AM45</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>'Приход материалов'!AN55-'Расход материалов'!AN39</f>
+        <f>'Приход материалов'!AN46-'Расход материалов'!AN45</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>'Приход материалов'!AO55-'Расход материалов'!AO39</f>
+        <f>'Приход материалов'!AO46-'Расход материалов'!AO45</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>'Приход материалов'!AP55-'Расход материалов'!AP39</f>
+        <f>'Приход материалов'!AP46-'Расход материалов'!AP45</f>
         <v>0</v>
       </c>
       <c r="AQ5">
-        <f>'Приход материалов'!AQ55-'Расход материалов'!AQ39</f>
+        <f>'Приход материалов'!AQ46-'Расход материалов'!AQ45</f>
         <v>0</v>
       </c>
       <c r="AR5">
-        <f>'Приход материалов'!AR55-'Расход материалов'!AR39</f>
+        <f>'Приход материалов'!AR46-'Расход материалов'!AR45</f>
         <v>0</v>
       </c>
       <c r="AS5">
-        <f>'Приход материалов'!AS55-'Расход материалов'!AS39</f>
+        <f>'Приход материалов'!AS46-'Расход материалов'!AS45</f>
         <v>0</v>
       </c>
       <c r="AT5">
-        <f>'Приход материалов'!AT55-'Расход материалов'!AT39</f>
+        <f>'Приход материалов'!AT46-'Расход материалов'!AT45</f>
         <v>0</v>
       </c>
       <c r="AU5">
-        <f>'Приход материалов'!AU55-'Расход материалов'!AU39</f>
+        <f>'Приход материалов'!AU46-'Расход материалов'!AU45</f>
         <v>0</v>
       </c>
       <c r="AV5">
-        <f>'Приход материалов'!AV55-'Расход материалов'!AV39</f>
+        <f>'Приход материалов'!AV46-'Расход материалов'!AV45</f>
         <v>0</v>
       </c>
       <c r="AW5">
-        <f>'Приход материалов'!AW55-'Расход материалов'!AW39</f>
+        <f>'Приход материалов'!AW46-'Расход материалов'!AW45</f>
         <v>0</v>
       </c>
       <c r="AX5">
-        <f>'Приход материалов'!AX55-'Расход материалов'!AX39</f>
-        <v>-662591</v>
+        <f>'Приход материалов'!AX46-'Расход материалов'!AX45</f>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <f>'Приход материалов'!AY55-'Расход материалов'!AY39</f>
+        <f>'Приход материалов'!AY46-'Расход материалов'!AY45</f>
         <v>0</v>
       </c>
       <c r="AZ5">
-        <f>'Приход материалов'!AZ55-'Расход материалов'!AZ39</f>
+        <f>'Приход материалов'!AZ46-'Расход материалов'!AZ45</f>
         <v>0</v>
       </c>
       <c r="BA5">
-        <f>'Приход материалов'!BA55-'Расход материалов'!BA39</f>
+        <f>'Приход материалов'!BA46-'Расход материалов'!BA45</f>
         <v>0</v>
       </c>
       <c r="BB5">
-        <f>'Приход материалов'!BB55-'Расход материалов'!BB39</f>
+        <f>'Приход материалов'!BB46-'Расход материалов'!BB45</f>
         <v>0</v>
       </c>
       <c r="BC5">
-        <f>'Приход материалов'!BC55-'Расход материалов'!BC39</f>
+        <f>'Приход материалов'!BC46-'Расход материалов'!BC45</f>
         <v>0</v>
       </c>
       <c r="BD5">
-        <f>'Приход материалов'!BD55-'Расход материалов'!BD39</f>
+        <f>'Приход материалов'!BD46-'Расход материалов'!BD45</f>
         <v>0</v>
       </c>
       <c r="BE5">
-        <f>'Приход материалов'!BE55-'Расход материалов'!BE39</f>
+        <f>'Приход материалов'!BE46-'Расход материалов'!BE45</f>
         <v>0</v>
       </c>
       <c r="BF5">
-        <f>'Приход материалов'!BF55-'Расход материалов'!BF39</f>
+        <f>'Приход материалов'!BF46-'Расход материалов'!BF45</f>
         <v>0</v>
       </c>
       <c r="BG5">
-        <f>'Приход материалов'!BG55-'Расход материалов'!BG39</f>
-        <v>1</v>
+        <f>'Приход материалов'!BG46-'Расход материалов'!BG45</f>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <f>'Приход материалов'!BH55-'Расход материалов'!BH39</f>
+        <f>'Приход материалов'!BH46-'Расход материалов'!BH45</f>
         <v>0</v>
       </c>
       <c r="BI5">
-        <f>'Приход материалов'!BI55-'Расход материалов'!BI39</f>
+        <f>'Приход материалов'!BI46-'Расход материалов'!BI45</f>
         <v>0</v>
       </c>
       <c r="BJ5">
-        <f>'Приход материалов'!BJ55-'Расход материалов'!BJ39</f>
+        <f>'Приход материалов'!BJ46-'Расход материалов'!BJ45</f>
         <v>0</v>
       </c>
       <c r="BK5">
-        <f>'Приход материалов'!BK55-'Расход материалов'!BK39</f>
+        <f>'Приход материалов'!BK46-'Расход материалов'!BK45</f>
         <v>0</v>
       </c>
       <c r="BL5">
-        <f>'Приход материалов'!BL55-'Расход материалов'!BL39</f>
+        <f>'Приход материалов'!BL46-'Расход материалов'!BL45</f>
         <v>0</v>
       </c>
       <c r="BM5">
-        <f>'Приход материалов'!BM55-'Расход материалов'!BM39</f>
+        <f>'Приход материалов'!BM46-'Расход материалов'!BM45</f>
         <v>0</v>
       </c>
       <c r="BN5">
-        <f>'Приход материалов'!BN55-'Расход материалов'!BN39</f>
+        <f>'Приход материалов'!BN46-'Расход материалов'!BN45</f>
         <v>0</v>
       </c>
       <c r="BO5">
-        <f>'Приход материалов'!BO55-'Расход материалов'!BO39</f>
+        <f>'Приход материалов'!BO46-'Расход материалов'!BO45</f>
         <v>0</v>
       </c>
       <c r="BP5">
-        <f>'Приход материалов'!BP55-'Расход материалов'!BP39</f>
+        <f>'Приход материалов'!BP46-'Расход материалов'!BP45</f>
         <v>0</v>
       </c>
       <c r="BQ5">
-        <f>'Приход материалов'!BQ55-'Расход материалов'!BQ39</f>
+        <f>'Приход материалов'!BQ46-'Расход материалов'!BQ45</f>
         <v>0</v>
       </c>
       <c r="BR5">
-        <f>'Приход материалов'!BR55-'Расход материалов'!BR39</f>
+        <f>'Приход материалов'!BR46-'Расход материалов'!BR45</f>
         <v>0</v>
       </c>
       <c r="BS5">
-        <f>'Приход материалов'!BS55-'Расход материалов'!BS39</f>
+        <f>'Приход материалов'!BS46-'Расход материалов'!BS45</f>
         <v>0</v>
       </c>
       <c r="BT5">
-        <f>'Приход материалов'!BT55-'Расход материалов'!BT39</f>
+        <f>'Приход материалов'!BT46-'Расход материалов'!BT45</f>
         <v>0</v>
       </c>
       <c r="BU5">
-        <f>'Приход материалов'!BU55-'Расход материалов'!BU39</f>
+        <f>'Приход материалов'!BU46-'Расход материалов'!BU45</f>
         <v>0</v>
       </c>
       <c r="BV5">
-        <f>'Приход материалов'!BV55-'Расход материалов'!BV39</f>
+        <f>'Приход материалов'!BV46-'Расход материалов'!BV45</f>
         <v>0</v>
       </c>
       <c r="BW5">
-        <f>'Приход материалов'!BW55-'Расход материалов'!BW39</f>
-        <v>-662591</v>
+        <f>'Приход материалов'!BW46-'Расход материалов'!BW45</f>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <f>'Приход материалов'!BX55-'Расход материалов'!BX39</f>
-        <v>-662591</v>
+        <f>'Приход материалов'!BX46-'Расход материалов'!BX45</f>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <f>'Приход материалов'!BY55-'Расход материалов'!BY39</f>
+        <f>'Приход материалов'!BY46-'Расход материалов'!BY45</f>
         <v>0</v>
       </c>
       <c r="BZ5">

--- a/CreditApp/bin/Debug/7.xlsx
+++ b/CreditApp/bin/Debug/7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mat" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="190">
   <si>
     <t>ед. измерения</t>
   </si>
@@ -587,6 +587,15 @@
   <si>
     <t>22.03.2016</t>
   </si>
+  <si>
+    <t>23.03.2016</t>
+  </si>
+  <si>
+    <t>01.03.2016</t>
+  </si>
+  <si>
+    <t>01.04.2016</t>
+  </si>
 </sst>
 </file>
 
@@ -1779,11 +1788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY46"/>
+  <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BZ1" sqref="BZ1"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2707,7 +2716,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2721,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2735,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2749,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2763,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2780,7 +2789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2868,7 +2877,7 @@
       <c r="BW38" s="3"/>
       <c r="BX38" s="3"/>
     </row>
-    <row r="39" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -2888,7 +2897,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="40" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2902,7 +2911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -2916,7 +2925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -2927,7 +2936,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -2973,7 +2982,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:76" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -2990,301 +2999,371 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:77" x14ac:dyDescent="0.3">
-      <c r="D46">
-        <f>SUM(D3:D45)</f>
-        <v>487</v>
+    <row r="46" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46">
+        <v>234</v>
       </c>
       <c r="E46">
-        <f>SUM(E3:E45)</f>
-        <v>16265</v>
-      </c>
-      <c r="F46">
-        <f>SUM(F3:F45)</f>
-        <v>18476</v>
-      </c>
-      <c r="G46">
-        <f>SUM(G3:G45)</f>
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="48" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>189</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="F48">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>187</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <f>SUM(D3:D50)</f>
+        <v>541</v>
+      </c>
+      <c r="E51">
+        <f>SUM(E3:E50)</f>
+        <v>19511</v>
+      </c>
+      <c r="F51">
+        <f>SUM(F3:F50)</f>
+        <v>19097</v>
+      </c>
+      <c r="G51">
+        <f>SUM(G3:G50)</f>
         <v>60035</v>
       </c>
-      <c r="H46">
-        <f>SUM(H3:H45)</f>
+      <c r="H51">
+        <f>SUM(H3:H50)</f>
         <v>2819</v>
       </c>
-      <c r="I46">
-        <f>SUM(I3:I45)</f>
+      <c r="I51">
+        <f>SUM(I3:I50)</f>
         <v>2167</v>
       </c>
-      <c r="J46">
-        <f>SUM(J3:J45)</f>
+      <c r="J51">
+        <f>SUM(J3:J50)</f>
         <v>888</v>
       </c>
-      <c r="K46">
-        <f>SUM(K3:K45)</f>
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <f>SUM(L3:L45)</f>
+      <c r="K51">
+        <f>SUM(K3:K50)</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f>SUM(L3:L50)</f>
         <v>10476</v>
       </c>
-      <c r="M46">
-        <f>SUM(M3:M45)</f>
+      <c r="M51">
+        <f>SUM(M3:M50)</f>
         <v>1300</v>
       </c>
-      <c r="N46">
-        <f>SUM(N3:N45)</f>
+      <c r="N51">
+        <f>SUM(N3:N50)</f>
         <v>7050</v>
       </c>
-      <c r="O46">
-        <f>SUM(O3:O45)</f>
+      <c r="O51">
+        <f>SUM(O3:O50)</f>
         <v>9</v>
       </c>
-      <c r="P46">
-        <f>SUM(P3:P45)</f>
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <f>SUM(Q3:Q45)</f>
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <f>SUM(R3:R45)</f>
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <f>SUM(S3:S45)</f>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f>SUM(T3:T45)</f>
+      <c r="P51">
+        <f>SUM(P3:P50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <f>SUM(Q3:Q50)</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>SUM(R3:R50)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>SUM(S3:S50)</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f>SUM(T3:T50)</f>
         <v>357</v>
       </c>
-      <c r="U46">
-        <f>SUM(U3:U45)</f>
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <f>SUM(V3:V45)</f>
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <f>SUM(W3:W45)</f>
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <f>SUM(X3:X45)</f>
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <f>SUM(Y3:Y45)</f>
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <f>SUM(Z3:Z45)</f>
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <f>SUM(AA3:AA45)</f>
+      <c r="U51">
+        <f>SUM(U3:U50)</f>
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <f>SUM(V3:V50)</f>
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <f>SUM(W3:W50)</f>
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <f>SUM(X3:X50)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f>SUM(Y3:Y50)</f>
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f>SUM(Z3:Z50)</f>
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <f>SUM(AA3:AA50)</f>
         <v>234</v>
       </c>
-      <c r="AB46">
-        <f>SUM(AB3:AB45)</f>
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <f>SUM(AC3:AC45)</f>
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <f>SUM(AD3:AD45)</f>
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <f>SUM(AE3:AE45)</f>
-        <v>0</v>
-      </c>
-      <c r="AF46">
-        <f>SUM(AF3:AF45)</f>
-        <v>0</v>
-      </c>
-      <c r="AG46">
-        <f>SUM(AG3:AG45)</f>
+      <c r="AB51">
+        <f>SUM(AB3:AB50)</f>
+        <v>0</v>
+      </c>
+      <c r="AC51">
+        <f>SUM(AC3:AC50)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <f>SUM(AD3:AD50)</f>
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <f>SUM(AE3:AE50)</f>
+        <v>0</v>
+      </c>
+      <c r="AF51">
+        <f>SUM(AF3:AF50)</f>
+        <v>0</v>
+      </c>
+      <c r="AG51">
+        <f>SUM(AG3:AG50)</f>
         <v>234</v>
       </c>
-      <c r="AH46">
-        <f>SUM(AH3:AH45)</f>
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <f>SUM(AI3:AI45)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <f>SUM(AJ3:AJ45)</f>
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <f>SUM(AK3:AK45)</f>
-        <v>0</v>
-      </c>
-      <c r="AL46">
-        <f>SUM(AL3:AL45)</f>
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <f>SUM(AM3:AM45)</f>
-        <v>0</v>
-      </c>
-      <c r="AN46">
-        <f>SUM(AN3:AN45)</f>
-        <v>0</v>
-      </c>
-      <c r="AO46">
-        <f>SUM(AO3:AO45)</f>
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <f>SUM(AP3:AP45)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <f>SUM(AQ3:AQ45)</f>
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <f>SUM(AR3:AR45)</f>
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <f>SUM(AS3:AS45)</f>
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <f>SUM(AT3:AT45)</f>
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <f>SUM(AU3:AU45)</f>
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <f>SUM(AV3:AV45)</f>
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <f>SUM(AW3:AW45)</f>
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <f>SUM(AX3:AX45)</f>
-        <v>0</v>
-      </c>
-      <c r="AY46">
-        <f>SUM(AY3:AY45)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ46">
-        <f>SUM(AZ3:AZ45)</f>
-        <v>0</v>
-      </c>
-      <c r="BA46">
-        <f>SUM(BA3:BA45)</f>
-        <v>0</v>
-      </c>
-      <c r="BB46">
-        <f>SUM(BB3:BB45)</f>
-        <v>0</v>
-      </c>
-      <c r="BC46">
-        <f>SUM(BC3:BC45)</f>
-        <v>0</v>
-      </c>
-      <c r="BD46">
-        <f>SUM(BD3:BD45)</f>
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <f>SUM(BE3:BE45)</f>
-        <v>0</v>
-      </c>
-      <c r="BF46">
-        <f>SUM(BF3:BF45)</f>
-        <v>0</v>
-      </c>
-      <c r="BG46">
-        <f>SUM(BG3:BG45)</f>
-        <v>0</v>
-      </c>
-      <c r="BH46">
-        <f>SUM(BH3:BH45)</f>
-        <v>0</v>
-      </c>
-      <c r="BI46">
-        <f>SUM(BI3:BI45)</f>
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <f>SUM(BJ3:BJ45)</f>
-        <v>0</v>
-      </c>
-      <c r="BK46">
-        <f>SUM(BK3:BK45)</f>
-        <v>0</v>
-      </c>
-      <c r="BL46">
-        <f>SUM(BL3:BL45)</f>
-        <v>0</v>
-      </c>
-      <c r="BM46">
-        <f>SUM(BM3:BM45)</f>
-        <v>0</v>
-      </c>
-      <c r="BN46">
-        <f>SUM(BN3:BN45)</f>
-        <v>0</v>
-      </c>
-      <c r="BO46">
-        <f>SUM(BO3:BO45)</f>
-        <v>0</v>
-      </c>
-      <c r="BP46">
-        <f>SUM(BP3:BP45)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ46">
-        <f>SUM(BQ3:BQ45)</f>
-        <v>0</v>
-      </c>
-      <c r="BR46">
-        <f>SUM(BR3:BR45)</f>
-        <v>0</v>
-      </c>
-      <c r="BS46">
-        <f>SUM(BS3:BS45)</f>
-        <v>0</v>
-      </c>
-      <c r="BT46">
-        <f>SUM(BT3:BT45)</f>
-        <v>0</v>
-      </c>
-      <c r="BU46">
-        <f>SUM(BU3:BU45)</f>
-        <v>0</v>
-      </c>
-      <c r="BV46">
-        <f>SUM(BV3:BV45)</f>
-        <v>0</v>
-      </c>
-      <c r="BW46">
-        <f>SUM(BW3:BW45)</f>
-        <v>0</v>
-      </c>
-      <c r="BX46">
-        <f>SUM(BX3:BX45)</f>
-        <v>0</v>
-      </c>
-      <c r="BY46">
-        <f>SUM(BY3:BY45)</f>
+      <c r="AH51">
+        <f>SUM(AH3:AH50)</f>
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <f>SUM(AI3:AI50)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <f>SUM(AJ3:AJ50)</f>
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <f>SUM(AK3:AK50)</f>
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <f>SUM(AL3:AL50)</f>
+        <v>0</v>
+      </c>
+      <c r="AM51">
+        <f>SUM(AM3:AM50)</f>
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <f>SUM(AN3:AN50)</f>
+        <v>0</v>
+      </c>
+      <c r="AO51">
+        <f>SUM(AO3:AO50)</f>
+        <v>0</v>
+      </c>
+      <c r="AP51">
+        <f>SUM(AP3:AP50)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ51">
+        <f>SUM(AQ3:AQ50)</f>
+        <v>0</v>
+      </c>
+      <c r="AR51">
+        <f>SUM(AR3:AR50)</f>
+        <v>0</v>
+      </c>
+      <c r="AS51">
+        <f>SUM(AS3:AS50)</f>
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <f>SUM(AT3:AT50)</f>
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <f>SUM(AU3:AU50)</f>
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <f>SUM(AV3:AV50)</f>
+        <v>0</v>
+      </c>
+      <c r="AW51">
+        <f>SUM(AW3:AW50)</f>
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <f>SUM(AX3:AX50)</f>
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <f>SUM(AY3:AY50)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <f>SUM(AZ3:AZ50)</f>
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <f>SUM(BA3:BA50)</f>
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <f>SUM(BB3:BB50)</f>
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <f>SUM(BC3:BC50)</f>
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <f>SUM(BD3:BD50)</f>
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <f>SUM(BE3:BE50)</f>
+        <v>0</v>
+      </c>
+      <c r="BF51">
+        <f>SUM(BF3:BF50)</f>
+        <v>0</v>
+      </c>
+      <c r="BG51">
+        <f>SUM(BG3:BG50)</f>
+        <v>0</v>
+      </c>
+      <c r="BH51">
+        <f>SUM(BH3:BH50)</f>
+        <v>0</v>
+      </c>
+      <c r="BI51">
+        <f>SUM(BI3:BI50)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ51">
+        <f>SUM(BJ3:BJ50)</f>
+        <v>0</v>
+      </c>
+      <c r="BK51">
+        <f>SUM(BK3:BK50)</f>
+        <v>0</v>
+      </c>
+      <c r="BL51">
+        <f>SUM(BL3:BL50)</f>
+        <v>0</v>
+      </c>
+      <c r="BM51">
+        <f>SUM(BM3:BM50)</f>
+        <v>0</v>
+      </c>
+      <c r="BN51">
+        <f>SUM(BN3:BN50)</f>
+        <v>0</v>
+      </c>
+      <c r="BO51">
+        <f>SUM(BO3:BO50)</f>
+        <v>0</v>
+      </c>
+      <c r="BP51">
+        <f>SUM(BP3:BP50)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ51">
+        <f>SUM(BQ3:BQ50)</f>
+        <v>0</v>
+      </c>
+      <c r="BR51">
+        <f>SUM(BR3:BR50)</f>
+        <v>0</v>
+      </c>
+      <c r="BS51">
+        <f>SUM(BS3:BS50)</f>
+        <v>0</v>
+      </c>
+      <c r="BT51">
+        <f>SUM(BT3:BT50)</f>
+        <v>0</v>
+      </c>
+      <c r="BU51">
+        <f>SUM(BU3:BU50)</f>
+        <v>0</v>
+      </c>
+      <c r="BV51">
+        <f>SUM(BV3:BV50)</f>
+        <v>0</v>
+      </c>
+      <c r="BW51">
+        <f>SUM(BW3:BW50)</f>
+        <v>0</v>
+      </c>
+      <c r="BX51">
+        <f>SUM(BX3:BX50)</f>
+        <v>0</v>
+      </c>
+      <c r="BY51">
+        <f>SUM(BY3:BY50)</f>
         <v>0</v>
       </c>
     </row>
@@ -3296,9 +3375,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY66"/>
+  <dimension ref="A1:BY71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I64" sqref="I64"/>
     </sheetView>
@@ -4814,299 +4893,390 @@
       </c>
     </row>
     <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66">
+        <v>234</v>
+      </c>
       <c r="D66">
-        <f t="shared" ref="D66:AI66" si="0">SUM(D3:D65)</f>
-        <v>2001</v>
+        <v>234</v>
       </c>
       <c r="E66">
+        <v>345</v>
+      </c>
+      <c r="I66">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68">
+        <v>123</v>
+      </c>
+      <c r="D68">
+        <v>1000</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69">
+        <v>234</v>
+      </c>
+      <c r="E69">
+        <v>342</v>
+      </c>
+      <c r="F69">
+        <v>123</v>
+      </c>
+      <c r="BX69">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70">
+        <v>234</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <f t="shared" ref="D71:AI71" si="0">SUM(D3:D70)</f>
+        <v>3247</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="0"/>
-        <v>27064</v>
-      </c>
-      <c r="F66">
+        <v>27752</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="0"/>
-        <v>12467</v>
-      </c>
-      <c r="G66">
+        <v>12593</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="0"/>
         <v>515218</v>
       </c>
-      <c r="H66">
+      <c r="H71">
         <f t="shared" si="0"/>
-        <v>3089</v>
-      </c>
-      <c r="I66">
+        <v>3093</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="0"/>
-        <v>7914</v>
-      </c>
-      <c r="J66">
+        <v>7959</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="0"/>
         <v>1309</v>
       </c>
-      <c r="K66">
+      <c r="K71">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="L66">
+      <c r="L71">
         <f t="shared" si="0"/>
         <v>10676</v>
       </c>
-      <c r="M66">
+      <c r="M71">
         <f t="shared" si="0"/>
         <v>1435</v>
       </c>
-      <c r="N66">
+      <c r="N71">
         <f t="shared" si="0"/>
         <v>7566</v>
       </c>
-      <c r="O66">
+      <c r="O71">
         <f t="shared" si="0"/>
         <v>683</v>
       </c>
-      <c r="P66">
+      <c r="P71">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="Q66">
+      <c r="Q71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R66">
+      <c r="R71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S66">
+      <c r="S71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T66">
+      <c r="T71">
         <f t="shared" si="0"/>
         <v>357</v>
       </c>
-      <c r="U66">
+      <c r="U71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V66">
+      <c r="V71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W66">
+      <c r="W71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X66">
+      <c r="X71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y66">
+      <c r="Y71">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="Z66">
+      <c r="Z71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA66">
+      <c r="AA71">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="AB66">
+      <c r="AB71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC66">
+      <c r="AC71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD66">
+      <c r="AD71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE66">
+      <c r="AE71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF66">
+      <c r="AF71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG66">
+      <c r="AG71">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="AH66">
+      <c r="AH71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI66">
+      <c r="AI71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ66">
-        <f t="shared" ref="AJ66:BO66" si="1">SUM(AJ3:AJ65)</f>
-        <v>0</v>
-      </c>
-      <c r="AK66">
+      <c r="AJ71">
+        <f t="shared" ref="AJ71:BO71" si="1">SUM(AJ3:AJ70)</f>
+        <v>0</v>
+      </c>
+      <c r="AK71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL66">
+      <c r="AL71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM66">
+      <c r="AM71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN66">
+      <c r="AN71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO66">
+      <c r="AO71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP66">
+      <c r="AP71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ66">
+      <c r="AQ71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR66">
+      <c r="AR71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS66">
+      <c r="AS71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT66">
+      <c r="AT71">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="AU66">
+      <c r="AU71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV66">
+      <c r="AV71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW66">
+      <c r="AW71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX66">
+      <c r="AX71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY66">
+      <c r="AY71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AZ66">
+      <c r="AZ71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA66">
+      <c r="BA71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB66">
+      <c r="BB71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC66">
+      <c r="BC71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD66">
+      <c r="BD71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE66">
+      <c r="BE71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BF66">
+      <c r="BF71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG66">
+      <c r="BG71">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BH66">
+      <c r="BH71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI66">
+      <c r="BI71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ66">
+      <c r="BJ71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK66">
+      <c r="BK71">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="BL66">
+      <c r="BL71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM66">
+      <c r="BM71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BN66">
+      <c r="BN71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BO66">
+      <c r="BO71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BP66">
-        <f t="shared" ref="BP66:CU66" si="2">SUM(BP3:BP65)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ66">
+      <c r="BP71">
+        <f t="shared" ref="BP71:BY71" si="2">SUM(BP3:BP70)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BR66">
+      <c r="BR71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BS66">
+      <c r="BS71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BT66">
+      <c r="BT71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BU66">
+      <c r="BU71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BV66">
+      <c r="BV71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BW66">
+      <c r="BW71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BX66">
+      <c r="BX71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BY66">
+        <v>233</v>
+      </c>
+      <c r="BY71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5119,10 +5289,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY66"/>
+  <dimension ref="A1:BY71"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="BX70" sqref="BX70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6383,299 +6553,390 @@
       </c>
     </row>
     <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66">
+        <v>234</v>
+      </c>
       <c r="D66">
-        <f t="shared" ref="D66:AI66" si="0">SUM(D3:D65)</f>
-        <v>2010</v>
+        <v>234</v>
       </c>
       <c r="E66">
+        <v>54</v>
+      </c>
+      <c r="I66">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68">
+        <v>123</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69">
+        <v>234</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>123</v>
+      </c>
+      <c r="BX69">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70">
+        <v>234</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <f t="shared" ref="D71:AI71" si="0">SUM(D3:D70)</f>
+        <v>2257</v>
+      </c>
+      <c r="E71">
         <f t="shared" si="0"/>
-        <v>1371</v>
-      </c>
-      <c r="F66">
+        <v>1429</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="0"/>
-        <v>8379</v>
-      </c>
-      <c r="G66">
+        <v>9005</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="H66">
+      <c r="H71">
         <f t="shared" si="0"/>
-        <v>389</v>
-      </c>
-      <c r="I66">
+        <v>394</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="0"/>
-        <v>458</v>
-      </c>
-      <c r="J66">
+        <v>492</v>
+      </c>
+      <c r="J71">
         <f t="shared" si="0"/>
         <v>6892</v>
       </c>
-      <c r="K66">
+      <c r="K71">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L66">
+      <c r="L71">
         <f t="shared" si="0"/>
         <v>489</v>
       </c>
-      <c r="M66">
+      <c r="M71">
         <f t="shared" si="0"/>
         <v>456</v>
       </c>
-      <c r="N66">
+      <c r="N71">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="O66">
+      <c r="O71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P66">
+      <c r="P71">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q66">
+      <c r="Q71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R66">
+      <c r="R71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S66">
+      <c r="S71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T66">
+      <c r="T71">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="U66">
+      <c r="U71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V66">
+      <c r="V71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W66">
+      <c r="W71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X66">
+      <c r="X71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y66">
+      <c r="Y71">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="Z66">
+      <c r="Z71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA66">
+      <c r="AA71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB66">
+      <c r="AB71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC66">
+      <c r="AC71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD66">
+      <c r="AD71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE66">
+      <c r="AE71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF66">
+      <c r="AF71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG66">
+      <c r="AG71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH66">
+      <c r="AH71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI66">
+      <c r="AI71">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ66">
-        <f t="shared" ref="AJ66:BO66" si="1">SUM(AJ3:AJ65)</f>
-        <v>0</v>
-      </c>
-      <c r="AK66">
+      <c r="AJ71">
+        <f t="shared" ref="AJ71:BO71" si="1">SUM(AJ3:AJ70)</f>
+        <v>0</v>
+      </c>
+      <c r="AK71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AL66">
+      <c r="AL71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM66">
+      <c r="AM71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN66">
+      <c r="AN71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO66">
+      <c r="AO71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AP66">
+      <c r="AP71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AQ66">
+      <c r="AQ71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AR66">
+      <c r="AR71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AS66">
+      <c r="AS71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AT66">
+      <c r="AT71">
         <f t="shared" si="1"/>
         <v>12323</v>
       </c>
-      <c r="AU66">
+      <c r="AU71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AV66">
+      <c r="AV71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AW66">
+      <c r="AW71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AX66">
+      <c r="AX71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AY66">
+      <c r="AY71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AZ66">
+      <c r="AZ71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BA66">
+      <c r="BA71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BB66">
+      <c r="BB71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BC66">
+      <c r="BC71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BD66">
+      <c r="BD71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BE66">
+      <c r="BE71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BF66">
+      <c r="BF71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG66">
+      <c r="BG71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BH66">
+      <c r="BH71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BI66">
+      <c r="BI71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ66">
+      <c r="BJ71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BK66">
+      <c r="BK71">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="BL66">
+      <c r="BL71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BM66">
+      <c r="BM71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BN66">
+      <c r="BN71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BO66">
+      <c r="BO71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BP66">
-        <f t="shared" ref="BP66:CU66" si="2">SUM(BP3:BP65)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ66">
+      <c r="BP71">
+        <f t="shared" ref="BP71:BY71" si="2">SUM(BP3:BP70)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BR66">
+      <c r="BR71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BS66">
+      <c r="BS71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BT66">
+      <c r="BT71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BU66">
+      <c r="BU71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BV66">
+      <c r="BV71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BW66">
+      <c r="BW71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="BX66">
+      <c r="BX71">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="BY66">
+        <v>123</v>
+      </c>
+      <c r="BY71">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6687,9 +6948,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY66"/>
+  <dimension ref="A1:BY71"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AJ45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
@@ -6707,6 +6968,7 @@
     <col min="11" max="11" width="7.21875" customWidth="1"/>
     <col min="12" max="12" width="9.77734375" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="76" max="76" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="2" customFormat="1" ht="91.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -20818,299 +21080,743 @@
       <c r="BX65" s="4"/>
     </row>
     <row r="66" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66">
+        <v>234</v>
+      </c>
       <c r="D66" s="4">
-        <f t="shared" ref="D66:AI66" si="2">SUM(D3:D65)</f>
-        <v>2054963</v>
+        <v>54756</v>
       </c>
       <c r="E66" s="4">
+        <v>18630</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4">
+        <v>1530</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="4"/>
+      <c r="AH66" s="4"/>
+      <c r="AI66" s="4"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
+      <c r="AN66" s="4"/>
+      <c r="AO66" s="4"/>
+      <c r="AP66" s="4"/>
+      <c r="AQ66" s="4"/>
+      <c r="AR66" s="4"/>
+      <c r="AS66" s="4"/>
+      <c r="AT66" s="4"/>
+      <c r="AU66" s="4"/>
+      <c r="AV66" s="4"/>
+      <c r="AW66" s="4"/>
+      <c r="AX66" s="4"/>
+      <c r="AY66" s="4"/>
+      <c r="AZ66" s="4"/>
+      <c r="BA66" s="4"/>
+      <c r="BB66" s="4"/>
+      <c r="BC66" s="4"/>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="4"/>
+      <c r="BF66" s="4"/>
+      <c r="BG66" s="4"/>
+      <c r="BH66" s="4"/>
+      <c r="BI66" s="4"/>
+      <c r="BJ66" s="4"/>
+      <c r="BK66" s="4"/>
+      <c r="BL66" s="4"/>
+      <c r="BM66" s="4"/>
+      <c r="BN66" s="4"/>
+      <c r="BO66" s="4"/>
+      <c r="BP66" s="4"/>
+      <c r="BQ66" s="4"/>
+      <c r="BR66" s="4"/>
+      <c r="BS66" s="4"/>
+      <c r="BT66" s="4"/>
+      <c r="BU66" s="4"/>
+      <c r="BV66" s="4"/>
+      <c r="BW66" s="4"/>
+      <c r="BX66" s="4"/>
+    </row>
+    <row r="67" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4">
+        <v>2</v>
+      </c>
+      <c r="F67" s="4">
+        <v>6</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
+        <v>20</v>
+      </c>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="4"/>
+      <c r="AH67" s="4"/>
+      <c r="AI67" s="4"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
+      <c r="AM67" s="4"/>
+      <c r="AN67" s="4"/>
+      <c r="AO67" s="4"/>
+      <c r="AP67" s="4"/>
+      <c r="AQ67" s="4"/>
+      <c r="AR67" s="4"/>
+      <c r="AS67" s="4"/>
+      <c r="AT67" s="4"/>
+      <c r="AU67" s="4"/>
+      <c r="AV67" s="4"/>
+      <c r="AW67" s="4"/>
+      <c r="AX67" s="4"/>
+      <c r="AY67" s="4"/>
+      <c r="AZ67" s="4"/>
+      <c r="BA67" s="4"/>
+      <c r="BB67" s="4"/>
+      <c r="BC67" s="4"/>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="4"/>
+      <c r="BF67" s="4"/>
+      <c r="BG67" s="4"/>
+      <c r="BH67" s="4"/>
+      <c r="BI67" s="4"/>
+      <c r="BJ67" s="4"/>
+      <c r="BK67" s="4"/>
+      <c r="BL67" s="4"/>
+      <c r="BM67" s="4"/>
+      <c r="BN67" s="4"/>
+      <c r="BO67" s="4"/>
+      <c r="BP67" s="4"/>
+      <c r="BQ67" s="4"/>
+      <c r="BR67" s="4"/>
+      <c r="BS67" s="4"/>
+      <c r="BT67" s="4"/>
+      <c r="BU67" s="4"/>
+      <c r="BV67" s="4"/>
+      <c r="BW67" s="4"/>
+      <c r="BX67" s="4"/>
+    </row>
+    <row r="68" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+      <c r="C68">
+        <v>123</v>
+      </c>
+      <c r="D68" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4">
+        <v>500</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="4"/>
+      <c r="AH68" s="4"/>
+      <c r="AI68" s="4"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
+      <c r="AN68" s="4"/>
+      <c r="AO68" s="4"/>
+      <c r="AP68" s="4"/>
+      <c r="AQ68" s="4"/>
+      <c r="AR68" s="4"/>
+      <c r="AS68" s="4"/>
+      <c r="AT68" s="4"/>
+      <c r="AU68" s="4"/>
+      <c r="AV68" s="4"/>
+      <c r="AW68" s="4"/>
+      <c r="AX68" s="4"/>
+      <c r="AY68" s="4"/>
+      <c r="AZ68" s="4"/>
+      <c r="BA68" s="4"/>
+      <c r="BB68" s="4"/>
+      <c r="BC68" s="4"/>
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="4"/>
+      <c r="BF68" s="4"/>
+      <c r="BG68" s="4"/>
+      <c r="BH68" s="4"/>
+      <c r="BI68" s="4"/>
+      <c r="BJ68" s="4"/>
+      <c r="BK68" s="4"/>
+      <c r="BL68" s="4"/>
+      <c r="BM68" s="4"/>
+      <c r="BN68" s="4"/>
+      <c r="BO68" s="4"/>
+      <c r="BP68" s="4"/>
+      <c r="BQ68" s="4"/>
+      <c r="BR68" s="4"/>
+      <c r="BS68" s="4"/>
+      <c r="BT68" s="4"/>
+      <c r="BU68" s="4"/>
+      <c r="BV68" s="4"/>
+      <c r="BW68" s="4"/>
+      <c r="BX68" s="4"/>
+    </row>
+    <row r="69" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69">
+        <v>234</v>
+      </c>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4">
+        <v>684</v>
+      </c>
+      <c r="F69" s="4">
+        <v>15129</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="4"/>
+      <c r="AH69" s="4"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
+      <c r="AP69" s="4"/>
+      <c r="AQ69" s="4"/>
+      <c r="AR69" s="4"/>
+      <c r="AS69" s="4"/>
+      <c r="AT69" s="4"/>
+      <c r="AU69" s="4"/>
+      <c r="AV69" s="4"/>
+      <c r="AW69" s="4"/>
+      <c r="AX69" s="4"/>
+      <c r="AY69" s="4"/>
+      <c r="AZ69" s="4"/>
+      <c r="BA69" s="4"/>
+      <c r="BB69" s="4"/>
+      <c r="BC69" s="4"/>
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="4"/>
+      <c r="BF69" s="4"/>
+      <c r="BG69" s="4"/>
+      <c r="BH69" s="4"/>
+      <c r="BI69" s="4"/>
+      <c r="BJ69" s="4"/>
+      <c r="BK69" s="4"/>
+      <c r="BL69" s="4"/>
+      <c r="BM69" s="4"/>
+      <c r="BN69" s="4"/>
+      <c r="BO69" s="4"/>
+      <c r="BP69" s="4"/>
+      <c r="BQ69" s="4"/>
+      <c r="BR69" s="4"/>
+      <c r="BS69" s="4"/>
+      <c r="BT69" s="4"/>
+      <c r="BU69" s="4"/>
+      <c r="BV69" s="4"/>
+      <c r="BW69" s="4"/>
+      <c r="BX69" s="4">
+        <v>28659</v>
+      </c>
+    </row>
+    <row r="70" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70">
+        <v>234</v>
+      </c>
+      <c r="D70" s="4">
+        <v>144</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="4"/>
+      <c r="AH70" s="4"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="4"/>
+      <c r="AQ70" s="4"/>
+      <c r="AR70" s="4"/>
+      <c r="AS70" s="4"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="4"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BB70" s="4"/>
+      <c r="BC70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+      <c r="BF70" s="4"/>
+      <c r="BG70" s="4"/>
+      <c r="BH70" s="4"/>
+      <c r="BI70" s="4"/>
+      <c r="BJ70" s="4"/>
+      <c r="BK70" s="4"/>
+      <c r="BL70" s="4"/>
+      <c r="BM70" s="4"/>
+      <c r="BN70" s="4"/>
+      <c r="BO70" s="4"/>
+      <c r="BP70" s="4"/>
+      <c r="BQ70" s="4"/>
+      <c r="BR70" s="4"/>
+      <c r="BS70" s="4"/>
+      <c r="BT70" s="4"/>
+      <c r="BU70" s="4"/>
+      <c r="BV70" s="4"/>
+      <c r="BW70" s="4"/>
+      <c r="BX70" s="4"/>
+    </row>
+    <row r="71" spans="1:77" x14ac:dyDescent="0.3">
+      <c r="D71" s="4">
+        <f t="shared" ref="D71:AI71" si="2">SUM(D3:D70)</f>
+        <v>2110863</v>
+      </c>
+      <c r="E71" s="4">
         <f t="shared" si="2"/>
-        <v>34540</v>
-      </c>
-      <c r="F66" s="4">
+        <v>53856</v>
+      </c>
+      <c r="F71" s="4">
         <f t="shared" si="2"/>
-        <v>14634784</v>
-      </c>
-      <c r="G66" s="4">
+        <v>14650419</v>
+      </c>
+      <c r="G71" s="4">
         <f t="shared" si="2"/>
         <v>20513343</v>
       </c>
-      <c r="H66" s="4">
+      <c r="H71" s="4">
         <f t="shared" si="2"/>
-        <v>2028</v>
-      </c>
-      <c r="I66" s="4">
+        <v>2048</v>
+      </c>
+      <c r="I71" s="4">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J66" s="4">
+        <v>1538</v>
+      </c>
+      <c r="J71" s="4">
         <f t="shared" si="2"/>
         <v>794104</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K71" s="4">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="L66" s="4">
+      <c r="L71" s="4">
         <f t="shared" si="2"/>
         <v>138990</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M71" s="4">
         <f t="shared" si="2"/>
         <v>207936</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N71" s="4">
         <f t="shared" si="2"/>
         <v>336</v>
       </c>
-      <c r="O66" s="4">
+      <c r="O71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P71" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="Q66" s="4">
+      <c r="Q71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="R66" s="4">
+      <c r="R71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S66" s="4">
+      <c r="S71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T66" s="4">
+      <c r="T71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U66" s="4">
+      <c r="U71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V66" s="4">
+      <c r="V71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W66" s="4">
+      <c r="W71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="X66" s="4">
+      <c r="X71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y66" s="4">
+      <c r="Y71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z66" s="4">
+      <c r="Z71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA66" s="4">
+      <c r="AA71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB66" s="4">
+      <c r="AB71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC66" s="4">
+      <c r="AC71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD66" s="4">
+      <c r="AD71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AE66" s="4">
+      <c r="AE71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AF66" s="4">
+      <c r="AF71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AG66" s="4">
+      <c r="AG71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH66" s="4">
+      <c r="AH71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AI66" s="4">
+      <c r="AI71" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AJ66" s="4">
-        <f t="shared" ref="AJ66:BO66" si="3">SUM(AJ3:AJ65)</f>
-        <v>0</v>
-      </c>
-      <c r="AK66" s="4">
+      <c r="AJ71" s="4">
+        <f t="shared" ref="AJ71:BO71" si="3">SUM(AJ3:AJ70)</f>
+        <v>0</v>
+      </c>
+      <c r="AK71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AL66" s="4">
+      <c r="AL71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AM66" s="4">
+      <c r="AM71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AN66" s="4">
+      <c r="AN71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AO66" s="4">
+      <c r="AO71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AP66" s="4">
+      <c r="AP71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AQ66" s="4">
+      <c r="AQ71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AR66" s="4">
+      <c r="AR71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AS66" s="4">
+      <c r="AS71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AT66" s="4">
+      <c r="AT71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AU66" s="4">
+      <c r="AU71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AV66" s="4">
+      <c r="AV71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AW66" s="4">
+      <c r="AW71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AX66" s="4">
+      <c r="AX71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AY66" s="4">
+      <c r="AY71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AZ66" s="4">
+      <c r="AZ71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BA66" s="4">
+      <c r="BA71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BB66" s="4">
+      <c r="BB71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BC66" s="4">
+      <c r="BC71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BD66" s="4">
+      <c r="BD71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BE66" s="4">
+      <c r="BE71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BF66" s="4">
+      <c r="BF71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BG66" s="4">
+      <c r="BG71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BH66" s="4">
+      <c r="BH71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BI66" s="4">
+      <c r="BI71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BJ66" s="4">
+      <c r="BJ71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BK66" s="4">
+      <c r="BK71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BL66" s="4">
+      <c r="BL71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BM66" s="4">
+      <c r="BM71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BN66" s="4">
+      <c r="BN71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BO66" s="4">
+      <c r="BO71" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="BP66" s="4">
-        <f t="shared" ref="BP66:CU66" si="4">SUM(BP3:BP65)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ66" s="4">
+      <c r="BP71" s="4">
+        <f t="shared" ref="BP71:BY71" si="4">SUM(BP3:BP70)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BR66" s="4">
+      <c r="BR71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BS66" s="4">
+      <c r="BS71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BT66" s="4">
+      <c r="BT71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BU66" s="4">
+      <c r="BU71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BV66" s="4">
+      <c r="BV71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BW66" s="4">
+      <c r="BW71" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BX66" s="4">
+      <c r="BX71" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BY66">
+        <v>28659</v>
+      </c>
+      <c r="BY71">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -21125,7 +21831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -21747,7 +22453,7 @@
   <dimension ref="A3:BZ6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22207,299 +22913,299 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f>'Приход материалов'!D46-'Расход материалов'!D45</f>
-        <v>0</v>
+        <f>'Приход материалов'!D71-'Расход материалов'!D51</f>
+        <v>2706</v>
       </c>
       <c r="E5">
-        <f>'Приход материалов'!E46-'Расход материалов'!E45</f>
-        <v>0</v>
+        <f>'Приход материалов'!E71-'Расход материалов'!E51</f>
+        <v>8241</v>
       </c>
       <c r="F5">
-        <f>'Приход материалов'!F46-'Расход материалов'!F45</f>
+        <f>'Приход материалов'!F71-'Расход материалов'!F51</f>
+        <v>-6504</v>
+      </c>
+      <c r="G5">
+        <f>'Приход материалов'!G71-'Расход материалов'!G51</f>
+        <v>455183</v>
+      </c>
+      <c r="H5">
+        <f>'Приход материалов'!H71-'Расход материалов'!H51</f>
+        <v>274</v>
+      </c>
+      <c r="I5">
+        <f>'Приход материалов'!I71-'Расход материалов'!I51</f>
+        <v>5792</v>
+      </c>
+      <c r="J5">
+        <f>'Приход материалов'!J71-'Расход материалов'!J51</f>
+        <v>421</v>
+      </c>
+      <c r="K5">
+        <f>'Приход материалов'!K71-'Расход материалов'!K51</f>
+        <v>162</v>
+      </c>
+      <c r="L5">
+        <f>'Приход материалов'!L71-'Расход материалов'!L51</f>
+        <v>200</v>
+      </c>
+      <c r="M5">
+        <f>'Приход материалов'!M71-'Расход материалов'!M51</f>
+        <v>135</v>
+      </c>
+      <c r="N5">
+        <f>'Приход материалов'!N71-'Расход материалов'!N51</f>
+        <v>516</v>
+      </c>
+      <c r="O5">
+        <f>'Приход материалов'!O71-'Расход материалов'!O51</f>
+        <v>674</v>
+      </c>
+      <c r="P5">
+        <f>'Приход материалов'!P71-'Расход материалов'!P51</f>
         <v>4</v>
       </c>
-      <c r="G5">
-        <f>'Приход материалов'!G46-'Расход материалов'!G45</f>
-        <v>-22</v>
-      </c>
-      <c r="H5">
-        <f>'Приход материалов'!H46-'Расход материалов'!H45</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>'Приход материалов'!I46-'Расход материалов'!I45</f>
-        <v>-23</v>
-      </c>
-      <c r="J5">
-        <f>'Приход материалов'!J46-'Расход материалов'!J45</f>
-        <v>2</v>
-      </c>
-      <c r="K5">
-        <f>'Приход материалов'!K46-'Расход материалов'!K45</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>'Приход материалов'!L46-'Расход материалов'!L45</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>'Приход материалов'!M46-'Расход материалов'!M45</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>'Приход материалов'!N46-'Расход материалов'!N45</f>
-        <v>5</v>
-      </c>
-      <c r="O5">
-        <f>'Приход материалов'!O46-'Расход материалов'!O45</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>'Приход материалов'!P46-'Расход материалов'!P45</f>
-        <v>0</v>
-      </c>
       <c r="Q5">
-        <f>'Приход материалов'!Q46-'Расход материалов'!Q45</f>
+        <f>'Приход материалов'!Q71-'Расход материалов'!Q51</f>
         <v>0</v>
       </c>
       <c r="R5">
-        <f>'Приход материалов'!R46-'Расход материалов'!R45</f>
+        <f>'Приход материалов'!R71-'Расход материалов'!R51</f>
         <v>0</v>
       </c>
       <c r="S5">
-        <f>'Приход материалов'!S46-'Расход материалов'!S45</f>
+        <f>'Приход материалов'!S71-'Расход материалов'!S51</f>
         <v>0</v>
       </c>
       <c r="T5">
-        <f>'Приход материалов'!T46-'Расход материалов'!T45</f>
+        <f>'Приход материалов'!T71-'Расход материалов'!T51</f>
         <v>0</v>
       </c>
       <c r="U5">
-        <f>'Приход материалов'!U46-'Расход материалов'!U45</f>
+        <f>'Приход материалов'!U71-'Расход материалов'!U51</f>
         <v>0</v>
       </c>
       <c r="V5">
-        <f>'Приход материалов'!V46-'Расход материалов'!V45</f>
+        <f>'Приход материалов'!V71-'Расход материалов'!V51</f>
         <v>0</v>
       </c>
       <c r="W5">
-        <f>'Приход материалов'!W46-'Расход материалов'!W45</f>
+        <f>'Приход материалов'!W71-'Расход материалов'!W51</f>
         <v>0</v>
       </c>
       <c r="X5">
-        <f>'Приход материалов'!X46-'Расход материалов'!X45</f>
+        <f>'Приход материалов'!X71-'Расход материалов'!X51</f>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f>'Приход материалов'!Y46-'Расход материалов'!Y45</f>
-        <v>0</v>
+        <f>'Приход материалов'!Y71-'Расход материалов'!Y51</f>
+        <v>123</v>
       </c>
       <c r="Z5">
-        <f>'Приход материалов'!Z46-'Расход материалов'!Z45</f>
+        <f>'Приход материалов'!Z71-'Расход материалов'!Z51</f>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f>'Приход материалов'!AA46-'Расход материалов'!AA45</f>
+        <f>'Приход материалов'!AA71-'Расход материалов'!AA51</f>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f>'Приход материалов'!AB46-'Расход материалов'!AB45</f>
+        <f>'Приход материалов'!AB71-'Расход материалов'!AB51</f>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f>'Приход материалов'!AC46-'Расход материалов'!AC45</f>
+        <f>'Приход материалов'!AC71-'Расход материалов'!AC51</f>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f>'Приход материалов'!AD46-'Расход материалов'!AD45</f>
+        <f>'Приход материалов'!AD71-'Расход материалов'!AD51</f>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f>'Приход материалов'!AE46-'Расход материалов'!AE45</f>
+        <f>'Приход материалов'!AE71-'Расход материалов'!AE51</f>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f>'Приход материалов'!AF46-'Расход материалов'!AF45</f>
+        <f>'Приход материалов'!AF71-'Расход материалов'!AF51</f>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f>'Приход материалов'!AG46-'Расход материалов'!AG45</f>
+        <f>'Приход материалов'!AG71-'Расход материалов'!AG51</f>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f>'Приход материалов'!AH46-'Расход материалов'!AH45</f>
+        <f>'Приход материалов'!AH71-'Расход материалов'!AH51</f>
         <v>0</v>
       </c>
       <c r="AI5">
-        <f>'Приход материалов'!AI46-'Расход материалов'!AI45</f>
+        <f>'Приход материалов'!AI71-'Расход материалов'!AI51</f>
         <v>0</v>
       </c>
       <c r="AJ5">
-        <f>'Приход материалов'!AJ46-'Расход материалов'!AJ45</f>
+        <f>'Приход материалов'!AJ71-'Расход материалов'!AJ51</f>
         <v>0</v>
       </c>
       <c r="AK5">
-        <f>'Приход материалов'!AK46-'Расход материалов'!AK45</f>
+        <f>'Приход материалов'!AK71-'Расход материалов'!AK51</f>
         <v>0</v>
       </c>
       <c r="AL5">
-        <f>'Приход материалов'!AL46-'Расход материалов'!AL45</f>
+        <f>'Приход материалов'!AL71-'Расход материалов'!AL51</f>
         <v>0</v>
       </c>
       <c r="AM5">
-        <f>'Приход материалов'!AM46-'Расход материалов'!AM45</f>
+        <f>'Приход материалов'!AM71-'Расход материалов'!AM51</f>
         <v>0</v>
       </c>
       <c r="AN5">
-        <f>'Приход материалов'!AN46-'Расход материалов'!AN45</f>
+        <f>'Приход материалов'!AN71-'Расход материалов'!AN51</f>
         <v>0</v>
       </c>
       <c r="AO5">
-        <f>'Приход материалов'!AO46-'Расход материалов'!AO45</f>
+        <f>'Приход материалов'!AO71-'Расход материалов'!AO51</f>
         <v>0</v>
       </c>
       <c r="AP5">
-        <f>'Приход материалов'!AP46-'Расход материалов'!AP45</f>
+        <f>'Приход материалов'!AP71-'Расход материалов'!AP51</f>
         <v>0</v>
       </c>
       <c r="AQ5">
-        <f>'Приход материалов'!AQ46-'Расход материалов'!AQ45</f>
+        <f>'Приход материалов'!AQ71-'Расход материалов'!AQ51</f>
         <v>0</v>
       </c>
       <c r="AR5">
-        <f>'Приход материалов'!AR46-'Расход материалов'!AR45</f>
+        <f>'Приход материалов'!AR71-'Расход материалов'!AR51</f>
         <v>0</v>
       </c>
       <c r="AS5">
-        <f>'Приход материалов'!AS46-'Расход материалов'!AS45</f>
+        <f>'Приход материалов'!AS71-'Расход материалов'!AS51</f>
         <v>0</v>
       </c>
       <c r="AT5">
-        <f>'Приход материалов'!AT46-'Расход материалов'!AT45</f>
-        <v>0</v>
+        <f>'Приход материалов'!AT71-'Расход материалов'!AT51</f>
+        <v>123</v>
       </c>
       <c r="AU5">
-        <f>'Приход материалов'!AU46-'Расход материалов'!AU45</f>
+        <f>'Приход материалов'!AU71-'Расход материалов'!AU51</f>
         <v>0</v>
       </c>
       <c r="AV5">
-        <f>'Приход материалов'!AV46-'Расход материалов'!AV45</f>
+        <f>'Приход материалов'!AV71-'Расход материалов'!AV51</f>
         <v>0</v>
       </c>
       <c r="AW5">
-        <f>'Приход материалов'!AW46-'Расход материалов'!AW45</f>
+        <f>'Приход материалов'!AW71-'Расход материалов'!AW51</f>
         <v>0</v>
       </c>
       <c r="AX5">
-        <f>'Приход материалов'!AX46-'Расход материалов'!AX45</f>
+        <f>'Приход материалов'!AX71-'Расход материалов'!AX51</f>
         <v>0</v>
       </c>
       <c r="AY5">
-        <f>'Приход материалов'!AY46-'Расход материалов'!AY45</f>
+        <f>'Приход материалов'!AY71-'Расход материалов'!AY51</f>
         <v>0</v>
       </c>
       <c r="AZ5">
-        <f>'Приход материалов'!AZ46-'Расход материалов'!AZ45</f>
+        <f>'Приход материалов'!AZ71-'Расход материалов'!AZ51</f>
         <v>0</v>
       </c>
       <c r="BA5">
-        <f>'Приход материалов'!BA46-'Расход материалов'!BA45</f>
+        <f>'Приход материалов'!BA71-'Расход материалов'!BA51</f>
         <v>0</v>
       </c>
       <c r="BB5">
-        <f>'Приход материалов'!BB46-'Расход материалов'!BB45</f>
+        <f>'Приход материалов'!BB71-'Расход материалов'!BB51</f>
         <v>0</v>
       </c>
       <c r="BC5">
-        <f>'Приход материалов'!BC46-'Расход материалов'!BC45</f>
+        <f>'Приход материалов'!BC71-'Расход материалов'!BC51</f>
         <v>0</v>
       </c>
       <c r="BD5">
-        <f>'Приход материалов'!BD46-'Расход материалов'!BD45</f>
+        <f>'Приход материалов'!BD71-'Расход материалов'!BD51</f>
         <v>0</v>
       </c>
       <c r="BE5">
-        <f>'Приход материалов'!BE46-'Расход материалов'!BE45</f>
+        <f>'Приход материалов'!BE71-'Расход материалов'!BE51</f>
         <v>0</v>
       </c>
       <c r="BF5">
-        <f>'Приход материалов'!BF46-'Расход материалов'!BF45</f>
+        <f>'Приход материалов'!BF71-'Расход материалов'!BF51</f>
         <v>0</v>
       </c>
       <c r="BG5">
-        <f>'Приход материалов'!BG46-'Расход материалов'!BG45</f>
-        <v>0</v>
+        <f>'Приход материалов'!BG71-'Расход материалов'!BG51</f>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <f>'Приход материалов'!BH46-'Расход материалов'!BH45</f>
+        <f>'Приход материалов'!BH71-'Расход материалов'!BH51</f>
         <v>0</v>
       </c>
       <c r="BI5">
-        <f>'Приход материалов'!BI46-'Расход материалов'!BI45</f>
+        <f>'Приход материалов'!BI71-'Расход материалов'!BI51</f>
         <v>0</v>
       </c>
       <c r="BJ5">
-        <f>'Приход материалов'!BJ46-'Расход материалов'!BJ45</f>
+        <f>'Приход материалов'!BJ71-'Расход материалов'!BJ51</f>
         <v>0</v>
       </c>
       <c r="BK5">
-        <f>'Приход материалов'!BK46-'Расход материалов'!BK45</f>
-        <v>0</v>
+        <f>'Приход материалов'!BK71-'Расход материалов'!BK51</f>
+        <v>12</v>
       </c>
       <c r="BL5">
-        <f>'Приход материалов'!BL46-'Расход материалов'!BL45</f>
+        <f>'Приход материалов'!BL71-'Расход материалов'!BL51</f>
         <v>0</v>
       </c>
       <c r="BM5">
-        <f>'Приход материалов'!BM46-'Расход материалов'!BM45</f>
+        <f>'Приход материалов'!BM71-'Расход материалов'!BM51</f>
         <v>0</v>
       </c>
       <c r="BN5">
-        <f>'Приход материалов'!BN46-'Расход материалов'!BN45</f>
+        <f>'Приход материалов'!BN71-'Расход материалов'!BN51</f>
         <v>0</v>
       </c>
       <c r="BO5">
-        <f>'Приход материалов'!BO46-'Расход материалов'!BO45</f>
+        <f>'Приход материалов'!BO71-'Расход материалов'!BO51</f>
         <v>0</v>
       </c>
       <c r="BP5">
-        <f>'Приход материалов'!BP46-'Расход материалов'!BP45</f>
+        <f>'Приход материалов'!BP71-'Расход материалов'!BP51</f>
         <v>0</v>
       </c>
       <c r="BQ5">
-        <f>'Приход материалов'!BQ46-'Расход материалов'!BQ45</f>
+        <f>'Приход материалов'!BQ71-'Расход материалов'!BQ51</f>
         <v>0</v>
       </c>
       <c r="BR5">
-        <f>'Приход материалов'!BR46-'Расход материалов'!BR45</f>
+        <f>'Приход материалов'!BR71-'Расход материалов'!BR51</f>
         <v>0</v>
       </c>
       <c r="BS5">
-        <f>'Приход материалов'!BS46-'Расход материалов'!BS45</f>
+        <f>'Приход материалов'!BS71-'Расход материалов'!BS51</f>
         <v>0</v>
       </c>
       <c r="BT5">
-        <f>'Приход материалов'!BT46-'Расход материалов'!BT45</f>
+        <f>'Приход материалов'!BT71-'Расход материалов'!BT51</f>
         <v>0</v>
       </c>
       <c r="BU5">
-        <f>'Приход материалов'!BU46-'Расход материалов'!BU45</f>
+        <f>'Приход материалов'!BU71-'Расход материалов'!BU51</f>
         <v>0</v>
       </c>
       <c r="BV5">
-        <f>'Приход материалов'!BV46-'Расход материалов'!BV45</f>
+        <f>'Приход материалов'!BV71-'Расход материалов'!BV51</f>
         <v>0</v>
       </c>
       <c r="BW5">
-        <f>'Приход материалов'!BW46-'Расход материалов'!BW45</f>
+        <f>'Приход материалов'!BW71-'Расход материалов'!BW51</f>
         <v>0</v>
       </c>
       <c r="BX5">
-        <f>'Приход материалов'!BX46-'Расход материалов'!BX45</f>
-        <v>0</v>
+        <f>'Приход материалов'!BX71-'Расход материалов'!BX51</f>
+        <v>233</v>
       </c>
       <c r="BY5">
-        <f>'Приход материалов'!BY46-'Расход материалов'!BY45</f>
+        <f>'Приход материалов'!BY71-'Расход материалов'!BY51</f>
         <v>0</v>
       </c>
       <c r="BZ5">
